--- a/wireSize.xlsx
+++ b/wireSize.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\SkyDrive\Projects\engineeringExcelWorksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\SkyDrive\Projects\wireCalculatorAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{9605868C-FC5D-4758-8C59-2876D8DBB6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB8A931D-661C-445E-8F58-39907C4A0459}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{9605868C-FC5D-4758-8C59-2876D8DBB6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3717801-DEAB-4BE1-A0FC-F7958E78689F}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LIohB+gbvy1ebnDYDEkw3sBqn5ATpkRnTBKSCLIwuwhY1dRk/ONOsqnkF15GQjFuMtxpDx3Xsy8MSH5DVYNTPA==" workbookSaltValue="oLGjJmtLY3te8hyT4f117A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="345" windowWidth="12015" windowHeight="15075" tabRatio="746" xr2:uid="{BFDAD5A9-2052-4A8A-80AC-2EDD1E0046A8}"/>
+    <workbookView xWindow="17505" yWindow="1020" windowWidth="17790" windowHeight="13665" tabRatio="746" xr2:uid="{BFDAD5A9-2052-4A8A-80AC-2EDD1E0046A8}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:XFC44"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="8">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="9"/>
@@ -1234,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>3</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9"/>
@@ -1316,7 +1316,7 @@
         <v>94</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
@@ -1351,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E20" s="8">
         <f>IFERROR('wire calculator'!C36,"")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>3</v>
@@ -1436,9 +1436,9 @@
       <c r="D21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="65" t="str">
         <f>IFERROR(IF(AND(E17="yes",'wire calculator'!C55='Trade Size'!$B$22),'Trade Size'!$B$21,'wire calculator'!C55),"")</f>
-        <v>10380</v>
+        <v/>
       </c>
       <c r="F21" s="6" t="s">
         <v>27</v>
@@ -1452,9 +1452,9 @@
       <c r="D22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="7" t="str">
         <f>IFERROR(INDEX('Trade Size'!A1:A30,MATCH(UI!E21,'Trade Size'!B1:B30,0)),"out of range")</f>
-        <v>10</v>
+        <v>out of range</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>28</v>
@@ -1468,9 +1468,9 @@
       <c r="D23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="7" t="str">
         <f>IFERROR(IF(AND(UI!E17="yes",'wire calculator'!C73=3),2,'wire calculator'!C73),"out of range")</f>
-        <v>12</v>
+        <v>out of range</v>
       </c>
       <c r="F23" s="67" t="s">
         <v>28</v>
@@ -1484,9 +1484,9 @@
       <c r="D24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="7" t="str">
         <f>IFERROR(IF(AND(UI!E17="yes",'wire calculator'!C79=3),2,'wire calculator'!C79),"out of range")</f>
-        <v>6</v>
+        <v>out of range</v>
       </c>
       <c r="F24" s="67" t="s">
         <v>28</v>
@@ -1501,9 +1501,9 @@
       <c r="D25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="7" t="str">
         <f>IFERROR(IF(AND(E17="yes",'wire calculator'!C76=3),2,'wire calculator'!C76),"out of range")</f>
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="F25" s="67" t="s">
         <v>28</v>
@@ -1518,9 +1518,9 @@
       <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="12" t="str">
         <f>IFERROR(VLOOKUP(UI!E21,'wire calculator'!F1:AJ30,(1+20+SUM('wire calculator'!C24:C27)),FALSE),"")</f>
-        <v>1.9036052743169856</v>
+        <v/>
       </c>
       <c r="F26" s="6" t="s">
         <v>6</v>
@@ -1534,9 +1534,9 @@
       <c r="D27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="8" t="str">
         <f>IFERROR(E3-(E3*E26/100),"")</f>
-        <v>117.71567367081961</v>
+        <v/>
       </c>
       <c r="F27" s="6" t="s">
         <v>2</v>
@@ -1550,9 +1550,9 @@
       <c r="D28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="8" t="str">
         <f>IFERROR('wire calculator'!C64,"")</f>
-        <v>137.65949498348613</v>
+        <v/>
       </c>
       <c r="F28" s="6" t="s">
         <v>1</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="E31" s="8">
         <f>IFERROR('wire calculator'!C36,"")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>3</v>
@@ -1602,9 +1602,9 @@
       <c r="D32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="65" t="str">
         <f>IFERROR(IF(AND(E17="yes",'wire calculator'!C56='Trade Size'!$B$22),'Trade Size'!$B$21,'wire calculator'!C56),"")</f>
-        <v>6530</v>
+        <v/>
       </c>
       <c r="F32" s="6" t="s">
         <v>27</v>
@@ -1618,9 +1618,9 @@
       <c r="D33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="7" t="str">
         <f>IFERROR(INDEX('Trade Size'!A1:A30,MATCH(UI!E32,'Trade Size'!B1:B30,0)),"out of range")</f>
-        <v>12</v>
+        <v>out of range</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>28</v>
@@ -1634,9 +1634,9 @@
       <c r="D34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="25" t="str">
         <f>IFERROR(IF(AND(UI!E17="yes",'wire calculator'!C74=3),2,'wire calculator'!C74),"out of range")</f>
-        <v>14</v>
+        <v>out of range</v>
       </c>
       <c r="F34" s="67" t="s">
         <v>28</v>
@@ -1650,9 +1650,9 @@
       <c r="D35" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="25" t="str">
         <f>IFERROR(IF(AND(UI!E17="yes",'wire calculator'!C80=3),2,'wire calculator'!C80),"out of range")</f>
-        <v>8</v>
+        <v>out of range</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>28</v>
@@ -1666,9 +1666,9 @@
       <c r="D36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="7" t="str">
         <f>IFERROR(IF(AND(E17="yes",'wire calculator'!C77=3),2,'wire calculator'!C77),"out of range")</f>
-        <v>6</v>
+        <v>3/0</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>28</v>
@@ -1682,9 +1682,9 @@
       <c r="D37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="12" t="str">
         <f>IFERROR(VLOOKUP(UI!E32,'wire calculator'!F1:AJ30,(1+20+SUM('wire calculator'!C28:C33)),FALSE),"")</f>
-        <v>1.9058755341834133</v>
+        <v/>
       </c>
       <c r="F37" s="6" t="s">
         <v>6</v>
@@ -1698,9 +1698,9 @@
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="8" t="str">
         <f>IFERROR(E3-(E3*E37/100),"")</f>
-        <v>117.7129493589799</v>
+        <v/>
       </c>
       <c r="F38" s="6" t="s">
         <v>2</v>
@@ -1714,9 +1714,9 @@
       <c r="D39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="8" t="str">
         <f>IFERROR('wire calculator'!C65,"")</f>
-        <v>137.34661762119146</v>
+        <v/>
       </c>
       <c r="F39" s="6" t="s">
         <v>1</v>
@@ -1785,7 +1785,7 @@
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="A42:G44"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{E26FDE8D-98B2-48CC-B182-68ABB7908921}">
       <formula1>"VA, A"</formula1>
     </dataValidation>
@@ -1810,7 +1810,7 @@
   <legacyDrawingHF r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{076C3C23-31E9-43C6-951A-14B3D7557355}">
           <x14:formula1>
             <xm:f>'wire calculator'!$B$8:$B$13</xm:f>
@@ -4771,15 +4771,15 @@
       </c>
       <c r="G1">
         <f>'310.15(B)(16)'!C1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>277.5</v>
+        <v>555</v>
       </c>
       <c r="H1">
         <f>'310.15(B)(16)'!D1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>332.5</v>
+        <v>665</v>
       </c>
       <c r="I1">
         <f>'310.15(B)(16)'!E1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="J1">
         <f>'310.15(B)(18)'!C1*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -4795,15 +4795,15 @@
       </c>
       <c r="M1">
         <f>'310.15(B)(16)'!F1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>235</v>
+        <v>470</v>
       </c>
       <c r="N1">
         <f>'310.15(B)(16)'!G1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="O1">
         <f>'310.15(B)(16)'!H1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>315</v>
+        <v>630</v>
       </c>
       <c r="P1" s="42">
         <f>'310.15(B)(18)'!F1*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -4811,15 +4811,15 @@
       </c>
       <c r="Q1" s="24">
         <f>'310.15(B)(17)'!C1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>577.5</v>
+        <v>1155</v>
       </c>
       <c r="R1" s="24">
         <f>'310.15(B)(17)'!D1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>692.5</v>
+        <v>1385</v>
       </c>
       <c r="S1" s="24">
         <f>'310.15(B)(17)'!E1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>780</v>
+        <v>1560</v>
       </c>
       <c r="T1" s="24">
         <f>'310.15(B)(19)'!C1*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -4835,59 +4835,59 @@
       </c>
       <c r="W1">
         <f>'310.15(B)(17)'!F1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="X1">
         <f>'310.15(B)(17)'!G1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>575</v>
+        <v>1150</v>
       </c>
       <c r="Y1">
         <f>'310.15(B)(17)'!H1*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>647.5</v>
+        <v>1295</v>
       </c>
       <c r="Z1" s="42">
         <f>'310.15(B)(19)'!F1*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AB1" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB1" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AC1" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC1" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AD1" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD1" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AE1" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE1" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AF1" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF1" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AG1" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG1" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H1:$J1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AH1" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH1" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H1:$J1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AI1" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI1" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H1:$J1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ1" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H1:$J1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -4910,15 +4910,15 @@
       </c>
       <c r="G2" s="24">
         <f>'310.15(B)(16)'!C2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>272.5</v>
+        <v>545</v>
       </c>
       <c r="H2" s="24">
         <f>'310.15(B)(16)'!D2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="I2" s="24">
         <f>'310.15(B)(16)'!E2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>367.5</v>
+        <v>735</v>
       </c>
       <c r="J2" s="24">
         <f>'310.15(B)(18)'!C2*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -4934,15 +4934,15 @@
       </c>
       <c r="M2" s="24">
         <f>'310.15(B)(16)'!F2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>227.5</v>
+        <v>455</v>
       </c>
       <c r="N2" s="24">
         <f>'310.15(B)(16)'!G2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>272.5</v>
+        <v>545</v>
       </c>
       <c r="O2" s="24">
         <f>'310.15(B)(16)'!H2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>307.5</v>
+        <v>615</v>
       </c>
       <c r="P2" s="38">
         <f>'310.15(B)(18)'!F2*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -4950,15 +4950,15 @@
       </c>
       <c r="Q2" s="24">
         <f>'310.15(B)(17)'!C2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>535</v>
+        <v>1070</v>
       </c>
       <c r="R2" s="24">
         <f>'310.15(B)(17)'!D2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="S2" s="24">
         <f>'310.15(B)(17)'!E2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>722.5</v>
+        <v>1445</v>
       </c>
       <c r="T2" s="24">
         <f>'310.15(B)(19)'!C2*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -4974,59 +4974,59 @@
       </c>
       <c r="W2">
         <f>'310.15(B)(17)'!F2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>437.5</v>
+        <v>875</v>
       </c>
       <c r="X2">
         <f>'310.15(B)(17)'!G2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>525</v>
+        <v>1050</v>
       </c>
       <c r="Y2">
         <f>'310.15(B)(17)'!H2*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>592.5</v>
+        <v>1185</v>
       </c>
       <c r="Z2" s="38">
         <f>'310.15(B)(19)'!F2*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB2" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC2" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD2" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE2" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF2" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG2" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H2:$J2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH2" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H2:$J2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI2" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H2:$J2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ2" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H2:$J2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -5048,15 +5048,15 @@
       </c>
       <c r="G3" s="24">
         <f>'310.15(B)(16)'!C3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>262.5</v>
+        <v>525</v>
       </c>
       <c r="H3" s="24">
         <f>'310.15(B)(16)'!D3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>312.5</v>
+        <v>625</v>
       </c>
       <c r="I3" s="24">
         <f>'310.15(B)(16)'!E3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>352.5</v>
+        <v>705</v>
       </c>
       <c r="J3" s="24">
         <f>'310.15(B)(18)'!C3*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5072,15 +5072,15 @@
       </c>
       <c r="M3" s="24">
         <f>'310.15(B)(16)'!F3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>217.5</v>
+        <v>435</v>
       </c>
       <c r="N3" s="24">
         <f>'310.15(B)(16)'!G3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="O3" s="24">
         <f>'310.15(B)(16)'!H3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>292.5</v>
+        <v>585</v>
       </c>
       <c r="P3" s="38">
         <f>'310.15(B)(18)'!F3*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5088,15 +5088,15 @@
       </c>
       <c r="Q3" s="24">
         <f>'310.15(B)(17)'!C3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>490</v>
+        <v>980</v>
       </c>
       <c r="R3" s="24">
         <f>'310.15(B)(17)'!D3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>587.5</v>
+        <v>1175</v>
       </c>
       <c r="S3" s="24">
         <f>'310.15(B)(17)'!E3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>662.5</v>
+        <v>1325</v>
       </c>
       <c r="T3" s="24">
         <f>'310.15(B)(19)'!C3*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5112,59 +5112,59 @@
       </c>
       <c r="W3">
         <f>'310.15(B)(17)'!F3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>397.5</v>
+        <v>795</v>
       </c>
       <c r="X3">
         <f>'310.15(B)(17)'!G3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>475</v>
+        <v>950</v>
       </c>
       <c r="Y3">
         <f>'310.15(B)(17)'!H3*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>535</v>
+        <v>1070</v>
       </c>
       <c r="Z3" s="38">
         <f>'310.15(B)(19)'!F3*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB3" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC3" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD3" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE3" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF3" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG3" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H3:$J3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH3" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H3:$J3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI3" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H3:$J3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ3" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H3:$J3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -5186,15 +5186,15 @@
       </c>
       <c r="G4" s="24">
         <f>'310.15(B)(16)'!C4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>247.5</v>
+        <v>495</v>
       </c>
       <c r="H4" s="24">
         <f>'310.15(B)(16)'!D4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="I4" s="24">
         <f>'310.15(B)(16)'!E4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>332.5</v>
+        <v>665</v>
       </c>
       <c r="J4" s="24">
         <f>'310.15(B)(18)'!C4*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5210,15 +5210,15 @@
       </c>
       <c r="M4" s="24">
         <f>'310.15(B)(16)'!F4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>202.5</v>
+        <v>405</v>
       </c>
       <c r="N4" s="24">
         <f>'310.15(B)(16)'!G4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>242.5</v>
+        <v>485</v>
       </c>
       <c r="O4" s="24">
         <f>'310.15(B)(16)'!H4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>272.5</v>
+        <v>545</v>
       </c>
       <c r="P4" s="38">
         <f>'310.15(B)(18)'!F4*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5226,15 +5226,15 @@
       </c>
       <c r="Q4" s="24">
         <f>'310.15(B)(17)'!C4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>445</v>
+        <v>890</v>
       </c>
       <c r="R4" s="24">
         <f>'310.15(B)(17)'!D4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>532.5</v>
+        <v>1065</v>
       </c>
       <c r="S4" s="24">
         <f>'310.15(B)(17)'!E4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T4" s="24">
         <f>'310.15(B)(19)'!C4*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5250,59 +5250,59 @@
       </c>
       <c r="W4">
         <f>'310.15(B)(17)'!F4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>355</v>
+        <v>710</v>
       </c>
       <c r="X4">
         <f>'310.15(B)(17)'!G4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>427.5</v>
+        <v>855</v>
       </c>
       <c r="Y4">
         <f>'310.15(B)(17)'!H4*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>482.5</v>
+        <v>965</v>
       </c>
       <c r="Z4" s="38">
         <f>'310.15(B)(19)'!F4*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC4" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD4" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE4" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF4" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H4:$J4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH4" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H4:$J4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI4" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H4:$J4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ4" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H4:$J4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -5325,15 +5325,15 @@
       </c>
       <c r="G5" s="24">
         <f>'310.15(B)(16)'!C5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>227.5</v>
+        <v>455</v>
       </c>
       <c r="H5" s="24">
         <f>'310.15(B)(16)'!D5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>272.5</v>
+        <v>545</v>
       </c>
       <c r="I5" s="24">
         <f>'310.15(B)(16)'!E5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>307.5</v>
+        <v>615</v>
       </c>
       <c r="J5" s="24">
         <f>'310.15(B)(18)'!C5*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5349,15 +5349,15 @@
       </c>
       <c r="M5" s="24">
         <f>'310.15(B)(16)'!F5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>187.5</v>
+        <v>375</v>
       </c>
       <c r="N5" s="24">
         <f>'310.15(B)(16)'!G5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>222.5</v>
+        <v>445</v>
       </c>
       <c r="O5" s="24">
         <f>'310.15(B)(16)'!H5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="P5" s="38">
         <f>'310.15(B)(18)'!F5*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5365,15 +5365,15 @@
       </c>
       <c r="Q5" s="24">
         <f>'310.15(B)(17)'!C5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>390</v>
+        <v>780</v>
       </c>
       <c r="R5" s="24">
         <f>'310.15(B)(17)'!D5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>467.5</v>
+        <v>935</v>
       </c>
       <c r="S5" s="24">
         <f>'310.15(B)(17)'!E5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>527.5</v>
+        <v>1055</v>
       </c>
       <c r="T5" s="24">
         <f>'310.15(B)(19)'!C5*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5389,59 +5389,59 @@
       </c>
       <c r="W5">
         <f>'310.15(B)(17)'!F5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>312.5</v>
+        <v>625</v>
       </c>
       <c r="X5">
         <f>'310.15(B)(17)'!G5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="Y5">
         <f>'310.15(B)(17)'!H5*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>422.5</v>
+        <v>845</v>
       </c>
       <c r="Z5" s="38">
         <f>'310.15(B)(19)'!F5*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.6943797021132388E-2</v>
-      </c>
-      <c r="AB5" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.7761390771132393E-2</v>
-      </c>
-      <c r="AC5" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC5" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.8578984521132391E-2</v>
-      </c>
-      <c r="AD5" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD5" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.184935952113239E-2</v>
-      </c>
-      <c r="AE5" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE5" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.457467202113239E-2</v>
-      </c>
-      <c r="AF5" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF5" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.7299984521132384E-2</v>
-      </c>
-      <c r="AG5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG5" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H5:$J5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.3163734521132396E-2</v>
-      </c>
-      <c r="AH5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH5" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H5:$J5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.4323890771132399E-2</v>
-      </c>
-      <c r="AI5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI5" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H5:$J5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.5484047021132394E-2</v>
-      </c>
-      <c r="AJ5" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ5" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H5:$J5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.012467202113239E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -5461,15 +5461,15 @@
       </c>
       <c r="G6" s="24">
         <f>'310.15(B)(16)'!C6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>217.5</v>
+        <v>435</v>
       </c>
       <c r="H6" s="24">
         <f>'310.15(B)(16)'!D6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="I6" s="24">
         <f>'310.15(B)(16)'!E6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>292.5</v>
+        <v>585</v>
       </c>
       <c r="J6" s="24">
         <f>'310.15(B)(18)'!C6*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5485,15 +5485,15 @@
       </c>
       <c r="M6" s="24">
         <f>'310.15(B)(16)'!F6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>177.5</v>
+        <v>355</v>
       </c>
       <c r="N6" s="24">
         <f>'310.15(B)(16)'!G6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>212.5</v>
+        <v>425</v>
       </c>
       <c r="O6" s="24">
         <f>'310.15(B)(16)'!H6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="P6" s="38">
         <f>'310.15(B)(18)'!F6*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5501,15 +5501,15 @@
       </c>
       <c r="Q6" s="24">
         <f>'310.15(B)(17)'!C6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>365</v>
+        <v>730</v>
       </c>
       <c r="R6" s="24">
         <f>'310.15(B)(17)'!D6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>435</v>
+        <v>870</v>
       </c>
       <c r="S6" s="24">
         <f>'310.15(B)(17)'!E6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>490</v>
+        <v>980</v>
       </c>
       <c r="T6" s="24">
         <f>'310.15(B)(19)'!C6*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5525,59 +5525,59 @@
       </c>
       <c r="W6">
         <f>'310.15(B)(17)'!F6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="X6">
         <f>'310.15(B)(17)'!G6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Y6">
         <f>'310.15(B)(17)'!H6*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>395</v>
+        <v>790</v>
       </c>
       <c r="Z6" s="38">
         <f>'310.15(B)(19)'!F6*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.0528135342703372E-2</v>
-      </c>
-      <c r="AB6" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB6" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.1481994717703363E-2</v>
-      </c>
-      <c r="AC6" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.2435854092703368E-2</v>
-      </c>
-      <c r="AD6" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD6" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.6251291592703379E-2</v>
-      </c>
-      <c r="AE6" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE6" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.9430822842703372E-2</v>
-      </c>
-      <c r="AF6" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF6" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.2610354092703364E-2</v>
-      </c>
-      <c r="AG6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG6" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H6:$J6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.941840096770337E-2</v>
-      </c>
-      <c r="AH6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH6" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H6:$J6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.0856994717703365E-2</v>
-      </c>
-      <c r="AI6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI6" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H6:$J6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.2295588467703366E-2</v>
-      </c>
-      <c r="AJ6" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ6" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H6:$J6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.8049963467703372E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -5595,15 +5595,15 @@
       </c>
       <c r="G7" s="24">
         <f>'310.15(B)(16)'!C7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>205</v>
+        <v>410</v>
       </c>
       <c r="H7" s="24">
         <f>'310.15(B)(16)'!D7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>245</v>
+        <v>490</v>
       </c>
       <c r="I7" s="24">
         <f>'310.15(B)(16)'!E7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>277.5</v>
+        <v>555</v>
       </c>
       <c r="J7" s="24">
         <f>'310.15(B)(18)'!C7*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5619,15 +5619,15 @@
       </c>
       <c r="M7" s="24">
         <f>'310.15(B)(16)'!F7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="N7" s="24">
         <f>'310.15(B)(16)'!G7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>197.5</v>
+        <v>395</v>
       </c>
       <c r="O7" s="24">
         <f>'310.15(B)(16)'!H7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>222.5</v>
+        <v>445</v>
       </c>
       <c r="P7" s="38">
         <f>'310.15(B)(18)'!F7*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5635,15 +5635,15 @@
       </c>
       <c r="Q7" s="24">
         <f>'310.15(B)(17)'!C7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="R7" s="24">
         <f>'310.15(B)(17)'!D7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>407.5</v>
+        <v>815</v>
       </c>
       <c r="S7" s="24">
         <f>'310.15(B)(17)'!E7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="T7" s="24">
         <f>'310.15(B)(19)'!C7*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5659,59 +5659,59 @@
       </c>
       <c r="W7">
         <f>'310.15(B)(17)'!F7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>267.5</v>
+        <v>535</v>
       </c>
       <c r="X7">
         <f>'310.15(B)(17)'!G7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>322.5</v>
+        <v>645</v>
       </c>
       <c r="Y7">
         <f>'310.15(B)(17)'!H7*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>362.5</v>
+        <v>725</v>
       </c>
       <c r="Z7" s="38">
         <f>'310.15(B)(19)'!F7*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.0528135342703372E-2</v>
-      </c>
-      <c r="AB7" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB7" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.1481994717703363E-2</v>
-      </c>
-      <c r="AC7" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC7" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.2435854092703368E-2</v>
-      </c>
-      <c r="AD7" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD7" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.6251291592703379E-2</v>
-      </c>
-      <c r="AE7" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE7" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.9430822842703372E-2</v>
-      </c>
-      <c r="AF7" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF7" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.2610354092703364E-2</v>
-      </c>
-      <c r="AG7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG7" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H7:$J7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.941840096770337E-2</v>
-      </c>
-      <c r="AH7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH7" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H7:$J7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.0856994717703365E-2</v>
-      </c>
-      <c r="AI7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI7" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H7:$J7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.2295588467703366E-2</v>
-      </c>
-      <c r="AJ7" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ7" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H7:$J7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.8049963467703372E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -5733,15 +5733,15 @@
       </c>
       <c r="G8" s="24">
         <f>'310.15(B)(16)'!C8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H8" s="24">
         <f>'310.15(B)(16)'!D8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>237.5</v>
+        <v>475</v>
       </c>
       <c r="I8" s="24">
         <f>'310.15(B)(16)'!E8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>267.5</v>
+        <v>535</v>
       </c>
       <c r="J8" s="24">
         <f>'310.15(B)(18)'!C8*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5757,15 +5757,15 @@
       </c>
       <c r="M8" s="24">
         <f>'310.15(B)(16)'!F8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="N8" s="24">
         <f>'310.15(B)(16)'!G8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>192.5</v>
+        <v>385</v>
       </c>
       <c r="O8" s="24">
         <f>'310.15(B)(16)'!H8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>217.5</v>
+        <v>435</v>
       </c>
       <c r="P8" s="38">
         <f>'310.15(B)(18)'!F8*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5773,15 +5773,15 @@
       </c>
       <c r="Q8" s="24">
         <f>'310.15(B)(17)'!C8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>327.5</v>
+        <v>655</v>
       </c>
       <c r="R8" s="24">
         <f>'310.15(B)(17)'!D8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>392.5</v>
+        <v>785</v>
       </c>
       <c r="S8" s="24">
         <f>'310.15(B)(17)'!E8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>442.5</v>
+        <v>885</v>
       </c>
       <c r="T8" s="24">
         <f>'310.15(B)(19)'!C8*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5797,59 +5797,59 @@
       </c>
       <c r="W8">
         <f>'310.15(B)(17)'!F8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>257.5</v>
+        <v>515</v>
       </c>
       <c r="X8">
         <f>'310.15(B)(17)'!G8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>310</v>
+        <v>620</v>
       </c>
       <c r="Y8">
         <f>'310.15(B)(17)'!H8*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Z8" s="38">
         <f>'310.15(B)(19)'!F8*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.0528135342703372E-2</v>
-      </c>
-      <c r="AB8" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.1481994717703363E-2</v>
-      </c>
-      <c r="AC8" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC8" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.2435854092703368E-2</v>
-      </c>
-      <c r="AD8" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD8" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.6251291592703379E-2</v>
-      </c>
-      <c r="AE8" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE8" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.9430822842703372E-2</v>
-      </c>
-      <c r="AF8" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF8" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.2610354092703364E-2</v>
-      </c>
-      <c r="AG8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG8" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H8:$J8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.941840096770337E-2</v>
-      </c>
-      <c r="AH8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH8" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H8:$J8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.0856994717703365E-2</v>
-      </c>
-      <c r="AI8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI8" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H8:$J8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.2295588467703366E-2</v>
-      </c>
-      <c r="AJ8" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ8" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H8:$J8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.8049963467703372E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -5871,15 +5871,15 @@
       </c>
       <c r="G9" s="24">
         <f>'310.15(B)(16)'!C9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>192.5</v>
+        <v>385</v>
       </c>
       <c r="H9" s="24">
         <f>'310.15(B)(16)'!D9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="I9" s="24">
         <f>'310.15(B)(16)'!E9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="J9" s="24">
         <f>'310.15(B)(18)'!C9*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5895,15 +5895,15 @@
       </c>
       <c r="M9" s="24">
         <f>'310.15(B)(16)'!F9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>157.5</v>
+        <v>315</v>
       </c>
       <c r="N9" s="24">
         <f>'310.15(B)(16)'!G9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>187.5</v>
+        <v>375</v>
       </c>
       <c r="O9" s="24">
         <f>'310.15(B)(16)'!H9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>212.5</v>
+        <v>425</v>
       </c>
       <c r="P9" s="38">
         <f>'310.15(B)(18)'!F9*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5911,15 +5911,15 @@
       </c>
       <c r="Q9" s="24">
         <f>'310.15(B)(17)'!C9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>315</v>
+        <v>630</v>
       </c>
       <c r="R9" s="24">
         <f>'310.15(B)(17)'!D9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>377.5</v>
+        <v>755</v>
       </c>
       <c r="S9" s="24">
         <f>'310.15(B)(17)'!E9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>425</v>
+        <v>850</v>
       </c>
       <c r="T9" s="24">
         <f>'310.15(B)(19)'!C9*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -5935,59 +5935,59 @@
       </c>
       <c r="W9">
         <f>'310.15(B)(17)'!F9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="X9">
         <f>'310.15(B)(17)'!G9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>297.5</v>
+        <v>595</v>
       </c>
       <c r="Y9">
         <f>'310.15(B)(17)'!H9*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>335</v>
+        <v>670</v>
       </c>
       <c r="Z9" s="38">
         <f>'310.15(B)(19)'!F9*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.4096447842703369E-2</v>
-      </c>
-      <c r="AB9" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB9" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.5231994717703367E-2</v>
-      </c>
-      <c r="AC9" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC9" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.6367541592703378E-2</v>
-      </c>
-      <c r="AD9" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD9" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.0909729092703367E-2</v>
-      </c>
-      <c r="AE9" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE9" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.4694885342703371E-2</v>
-      </c>
-      <c r="AF9" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF9" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.8480041592703369E-2</v>
-      </c>
-      <c r="AG9" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG9" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H9:$J9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.5656057217703357E-2</v>
-      </c>
-      <c r="AH9" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH9" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H9:$J9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.741949471770337E-2</v>
-      </c>
-      <c r="AI9" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI9" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H9:$J9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.9182932217703363E-2</v>
-      </c>
-      <c r="AJ9" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ9" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H9:$J9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.623668221770336E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -6009,15 +6009,15 @@
       </c>
       <c r="G10" s="24">
         <f>'310.15(B)(16)'!C10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="H10" s="24">
         <f>'310.15(B)(16)'!D10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="I10" s="24">
         <f>'310.15(B)(16)'!E10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>237.5</v>
+        <v>475</v>
       </c>
       <c r="J10" s="24">
         <f>'310.15(B)(18)'!C10*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6033,15 +6033,15 @@
       </c>
       <c r="M10" s="24">
         <f>'310.15(B)(16)'!F10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>142.5</v>
+        <v>285</v>
       </c>
       <c r="N10" s="24">
         <f>'310.15(B)(16)'!G10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="O10" s="24">
         <f>'310.15(B)(16)'!H10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>192.5</v>
+        <v>385</v>
       </c>
       <c r="P10" s="38">
         <f>'310.15(B)(18)'!F10*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6049,15 +6049,15 @@
       </c>
       <c r="Q10" s="24">
         <f>'310.15(B)(17)'!C10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>287.5</v>
+        <v>575</v>
       </c>
       <c r="R10" s="24">
         <f>'310.15(B)(17)'!D10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>345</v>
+        <v>690</v>
       </c>
       <c r="S10" s="24">
         <f>'310.15(B)(17)'!E10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>390</v>
+        <v>780</v>
       </c>
       <c r="T10" s="24">
         <f>'310.15(B)(19)'!C10*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6073,59 +6073,59 @@
       </c>
       <c r="W10">
         <f>'310.15(B)(17)'!F10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>227.5</v>
+        <v>455</v>
       </c>
       <c r="X10">
         <f>'310.15(B)(17)'!G10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>272.5</v>
+        <v>545</v>
       </c>
       <c r="Y10">
         <f>'310.15(B)(17)'!H10*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>307.5</v>
+        <v>615</v>
       </c>
       <c r="Z10" s="38">
         <f>'310.15(B)(19)'!F10*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.4096447842703369E-2</v>
-      </c>
-      <c r="AB10" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.5231994717703367E-2</v>
-      </c>
-      <c r="AC10" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC10" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.6367541592703378E-2</v>
-      </c>
-      <c r="AD10" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD10" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.0909729092703367E-2</v>
-      </c>
-      <c r="AE10" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE10" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.4694885342703371E-2</v>
-      </c>
-      <c r="AF10" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF10" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.8480041592703369E-2</v>
-      </c>
-      <c r="AG10" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG10" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H10:$J10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.5656057217703357E-2</v>
-      </c>
-      <c r="AH10" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH10" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H10:$J10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.741949471770337E-2</v>
-      </c>
-      <c r="AI10" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI10" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H10:$J10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.9182932217703363E-2</v>
-      </c>
-      <c r="AJ10" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ10" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H10:$J10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.623668221770336E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -6147,15 +6147,15 @@
       </c>
       <c r="G11" s="24">
         <f>'310.15(B)(16)'!C11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="H11" s="24">
         <f>'310.15(B)(16)'!D11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="I11" s="24">
         <f>'310.15(B)(16)'!E11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>215</v>
+        <v>430</v>
       </c>
       <c r="J11" s="24">
         <f>'310.15(B)(18)'!C11*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6171,15 +6171,15 @@
       </c>
       <c r="M11" s="24">
         <f>'310.15(B)(16)'!F11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N11" s="24">
         <f>'310.15(B)(16)'!G11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="O11" s="24">
         <f>'310.15(B)(16)'!H11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="P11" s="38">
         <f>'310.15(B)(18)'!F11*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6187,15 +6187,15 @@
       </c>
       <c r="Q11" s="24">
         <f>'310.15(B)(17)'!C11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>257.5</v>
+        <v>515</v>
       </c>
       <c r="R11" s="24">
         <f>'310.15(B)(17)'!D11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>310</v>
+        <v>620</v>
       </c>
       <c r="S11" s="24">
         <f>'310.15(B)(17)'!E11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="T11" s="24">
         <f>'310.15(B)(19)'!C11*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6211,59 +6211,59 @@
       </c>
       <c r="W11">
         <f>'310.15(B)(17)'!F11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>202.5</v>
+        <v>405</v>
       </c>
       <c r="X11">
         <f>'310.15(B)(17)'!G11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>242.5</v>
+        <v>485</v>
       </c>
       <c r="Y11">
         <f>'310.15(B)(17)'!H11*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>272.5</v>
+        <v>545</v>
       </c>
       <c r="Z11" s="38">
         <f>'310.15(B)(19)'!F11*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.7664760342703366E-2</v>
-      </c>
-      <c r="AB11" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.898199471770337E-2</v>
-      </c>
-      <c r="AC11" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC11" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.0299229092703374E-2</v>
-      </c>
-      <c r="AD11" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD11" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.5568166592703368E-2</v>
-      </c>
-      <c r="AE11" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE11" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.9958947842703371E-2</v>
-      </c>
-      <c r="AF11" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF11" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.4349729092703353E-2</v>
-      </c>
-      <c r="AG11" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG11" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H11:$J11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.1893713467703365E-2</v>
-      </c>
-      <c r="AH11" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH11" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H11:$J11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.3981994717703369E-2</v>
-      </c>
-      <c r="AI11" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI11" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H11:$J11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.607027596770336E-2</v>
-      </c>
-      <c r="AJ11" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ11" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H11:$J11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.4423400967703363E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -6285,15 +6285,15 @@
       </c>
       <c r="G12" s="24">
         <f>'310.15(B)(16)'!C12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="H12" s="24">
         <f>'310.15(B)(16)'!D12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>167.5</v>
+        <v>335</v>
       </c>
       <c r="I12" s="24">
         <f>'310.15(B)(16)'!E12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="J12" s="24">
         <f>'310.15(B)(18)'!C12*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6309,15 +6309,15 @@
       </c>
       <c r="M12" s="24">
         <f>'310.15(B)(16)'!F12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>112.5</v>
+        <v>225</v>
       </c>
       <c r="N12" s="24">
         <f>'310.15(B)(16)'!G12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="O12" s="24">
         <f>'310.15(B)(16)'!H12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>152.5</v>
+        <v>305</v>
       </c>
       <c r="P12" s="38">
         <f>'310.15(B)(18)'!F12*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6325,15 +6325,15 @@
       </c>
       <c r="Q12" s="24">
         <f>'310.15(B)(17)'!C12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>227.5</v>
+        <v>455</v>
       </c>
       <c r="R12" s="24">
         <f>'310.15(B)(17)'!D12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>272.5</v>
+        <v>545</v>
       </c>
       <c r="S12" s="24">
         <f>'310.15(B)(17)'!E12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>307.5</v>
+        <v>615</v>
       </c>
       <c r="T12" s="24">
         <f>'310.15(B)(19)'!C12*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6349,59 +6349,59 @@
       </c>
       <c r="W12">
         <f>'310.15(B)(17)'!F12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>177.5</v>
+        <v>355</v>
       </c>
       <c r="X12">
         <f>'310.15(B)(17)'!G12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>212.5</v>
+        <v>425</v>
       </c>
       <c r="Y12">
         <f>'310.15(B)(17)'!H12*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Z12" s="38">
         <f>'310.15(B)(19)'!F12*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.3471281065988856E-2</v>
-      </c>
-      <c r="AB12" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.5061046690988866E-2</v>
-      </c>
-      <c r="AC12" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.6650812315988862E-2</v>
-      </c>
-      <c r="AD12" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.3009874815988853E-2</v>
-      </c>
-      <c r="AE12" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.8309093565988854E-2</v>
-      </c>
-      <c r="AF12" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.3608312315988841E-2</v>
-      </c>
-      <c r="AG12" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H12:$J12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.1258702940988849E-2</v>
-      </c>
-      <c r="AH12" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H12:$J12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.3811046690988855E-2</v>
-      </c>
-      <c r="AI12" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H12:$J12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.636339044098886E-2</v>
-      </c>
-      <c r="AJ12" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H12:$J12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>8.6572765440988866E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -6423,15 +6423,15 @@
       </c>
       <c r="G13" s="24">
         <f>'310.15(B)(16)'!C13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="H13" s="24">
         <f>'310.15(B)(16)'!D13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="I13" s="24">
         <f>'310.15(B)(16)'!E13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="J13" s="24">
         <f>'310.15(B)(18)'!C13*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6447,15 +6447,15 @@
       </c>
       <c r="M13" s="24">
         <f>'310.15(B)(16)'!F13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="N13" s="24">
         <f>'310.15(B)(16)'!G13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="O13" s="24">
         <f>'310.15(B)(16)'!H13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="P13" s="38">
         <f>'310.15(B)(18)'!F13*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6463,15 +6463,15 @@
       </c>
       <c r="Q13" s="24">
         <f>'310.15(B)(17)'!C13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="R13" s="24">
         <f>'310.15(B)(17)'!D13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>252.5</v>
+        <v>505</v>
       </c>
       <c r="S13" s="24">
         <f>'310.15(B)(17)'!E13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>285</v>
+        <v>570</v>
       </c>
       <c r="T13" s="24">
         <f>'310.15(B)(19)'!C13*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6487,59 +6487,59 @@
       </c>
       <c r="W13">
         <f>'310.15(B)(17)'!F13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="X13">
         <f>'310.15(B)(17)'!G13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>197.5</v>
+        <v>395</v>
       </c>
       <c r="Y13">
         <f>'310.15(B)(17)'!H13*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>222.5</v>
+        <v>445</v>
       </c>
       <c r="Z13" s="38">
         <f>'310.15(B)(19)'!F13*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.749364553927435E-2</v>
-      </c>
-      <c r="AB13" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>5.9265098664274346E-2</v>
-      </c>
-      <c r="AC13" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.1036551789274349E-2</v>
-      </c>
-      <c r="AD13" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.8122364289274345E-2</v>
-      </c>
-      <c r="AE13" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.4027208039274359E-2</v>
-      </c>
-      <c r="AF13" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF13" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.9932051789274344E-2</v>
-      </c>
-      <c r="AG13" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H13:$J13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.8841504914274357E-2</v>
-      </c>
-      <c r="AH13" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H13:$J13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>8.1765098664274338E-2</v>
-      </c>
-      <c r="AI13" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H13:$J13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>8.4688692414274361E-2</v>
-      </c>
-      <c r="AJ13" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H13:$J13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>9.6383067414274354E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -6559,15 +6559,15 @@
       </c>
       <c r="G14" s="24">
         <f>'310.15(B)(16)'!C14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H14" s="24">
         <f>'310.15(B)(16)'!D14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>142.5</v>
+        <v>285</v>
       </c>
       <c r="I14" s="24">
         <f>'310.15(B)(16)'!E14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="J14" s="24">
         <f>'310.15(B)(18)'!C14*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6583,15 +6583,15 @@
       </c>
       <c r="M14" s="24">
         <f>'310.15(B)(16)'!F14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>97.5</v>
+        <v>195</v>
       </c>
       <c r="N14" s="24">
         <f>'310.15(B)(16)'!G14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="O14" s="24">
         <f>'310.15(B)(16)'!H14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="P14" s="38">
         <f>'310.15(B)(18)'!F14*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6599,15 +6599,15 @@
       </c>
       <c r="Q14" s="24">
         <f>'310.15(B)(17)'!C14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>187.5</v>
+        <v>375</v>
       </c>
       <c r="R14" s="24">
         <f>'310.15(B)(17)'!D14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>222.5</v>
+        <v>445</v>
       </c>
       <c r="S14" s="24">
         <f>'310.15(B)(17)'!E14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="T14" s="24">
         <f>'310.15(B)(19)'!C14*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6623,59 +6623,59 @@
       </c>
       <c r="W14">
         <f>'310.15(B)(17)'!F14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="X14">
         <f>'310.15(B)(17)'!G14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="Y14">
         <f>'310.15(B)(17)'!H14*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>197.5</v>
+        <v>395</v>
       </c>
       <c r="Z14" s="38">
         <f>'310.15(B)(19)'!F14*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.3300166262559812E-2</v>
-      </c>
-      <c r="AB14" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.5344150637559828E-2</v>
-      </c>
-      <c r="AC14" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>6.738813501255983E-2</v>
-      </c>
-      <c r="AD14" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.556407251255981E-2</v>
-      </c>
-      <c r="AE14" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>8.2377353762559807E-2</v>
-      </c>
-      <c r="AF14" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>8.9190635012559819E-2</v>
-      </c>
-      <c r="AG14" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H14:$J14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>8.7315400637559826E-2</v>
-      </c>
-      <c r="AH14" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H14:$J14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>9.0656650637559816E-2</v>
-      </c>
-      <c r="AI14" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H14:$J14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>9.3997900637559834E-2</v>
-      </c>
-      <c r="AJ14" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H14:$J14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.10736290063755982</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -6693,15 +6693,15 @@
       </c>
       <c r="G15" s="24">
         <f>'310.15(B)(16)'!C15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>107.5</v>
+        <v>215</v>
       </c>
       <c r="H15" s="24">
         <f>'310.15(B)(16)'!D15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>127.5</v>
+        <v>255</v>
       </c>
       <c r="I15" s="24">
         <f>'310.15(B)(16)'!E15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="J15" s="24">
         <f>'310.15(B)(18)'!C15*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6717,15 +6717,15 @@
       </c>
       <c r="M15" s="24">
         <f>'310.15(B)(16)'!F15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N15" s="24">
         <f>'310.15(B)(16)'!G15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>102.5</v>
+        <v>205</v>
       </c>
       <c r="O15" s="24">
         <f>'310.15(B)(16)'!H15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="P15" s="38">
         <f>'310.15(B)(18)'!F15*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6733,15 +6733,15 @@
       </c>
       <c r="Q15" s="24">
         <f>'310.15(B)(17)'!C15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="R15" s="24">
         <f>'310.15(B)(17)'!D15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>202.5</v>
+        <v>405</v>
       </c>
       <c r="S15" s="24">
         <f>'310.15(B)(17)'!E15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>227.5</v>
+        <v>455</v>
       </c>
       <c r="T15" s="24">
         <f>'310.15(B)(19)'!C15*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -6757,59 +6757,59 @@
       </c>
       <c r="W15">
         <f>'310.15(B)(17)'!F15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>132.5</v>
+        <v>265</v>
       </c>
       <c r="X15">
         <f>'310.15(B)(17)'!G15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>157.5</v>
+        <v>315</v>
       </c>
       <c r="Y15">
         <f>'310.15(B)(17)'!H15*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>177.5</v>
+        <v>355</v>
       </c>
       <c r="Z15" s="38">
         <f>'310.15(B)(19)'!F15*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.1782921360845311E-2</v>
-      </c>
-      <c r="AB15" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB15" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.4235702610845306E-2</v>
-      </c>
-      <c r="AC15" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC15" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.6688483860845313E-2</v>
-      </c>
-      <c r="AD15" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD15" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>8.6499608860845317E-2</v>
-      </c>
-      <c r="AE15" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE15" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>9.4675546360845325E-2</v>
-      </c>
-      <c r="AF15" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF15" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.10285148386084531</v>
-      </c>
-      <c r="AG15" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG15" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H15:$J15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.10024476511084532</v>
-      </c>
-      <c r="AH15" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH15" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H15:$J15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.10423570261084532</v>
-      </c>
-      <c r="AI15" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI15" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H15:$J15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.10822664011084532</v>
-      </c>
-      <c r="AJ15" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ15" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H15:$J15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.12419039011084529</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -6832,123 +6832,123 @@
       </c>
       <c r="G16" s="24">
         <f>'310.15(B)(16)'!C16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>97.5</v>
+        <v>195</v>
       </c>
       <c r="H16" s="24">
         <f>'310.15(B)(16)'!D16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="I16" s="24">
         <f>'310.15(B)(16)'!E16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="J16" s="24">
         <f>'310.15(B)(18)'!C16*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>188.22630755859515</v>
+        <v>376.45261511719031</v>
       </c>
       <c r="K16" s="24">
         <f>'310.15(B)(18)'!D16*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>196.16356149178893</v>
+        <v>392.32712298357785</v>
       </c>
       <c r="L16" s="38">
         <f>'310.15(B)(18)'!E16*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>204.66776213449654</v>
+        <v>409.33552426899308</v>
       </c>
       <c r="M16" s="24">
         <f>'310.15(B)(16)'!F16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="N16" s="24">
         <f>'310.15(B)(16)'!G16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O16" s="24">
         <f>'310.15(B)(16)'!H16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>102.5</v>
+        <v>205</v>
       </c>
       <c r="P16" s="38">
         <f>'310.15(B)(18)'!F16*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>147.40614447359863</v>
+        <v>294.81228894719726</v>
       </c>
       <c r="Q16" s="24">
         <f>'310.15(B)(17)'!C16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="R16" s="24">
         <f>'310.15(B)(17)'!D16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S16" s="24">
         <f>'310.15(B)(17)'!E16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>202.5</v>
+        <v>405</v>
       </c>
       <c r="T16" s="24">
         <f>'310.15(B)(19)'!C16*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>299.91480933282179</v>
+        <v>599.82961866564358</v>
       </c>
       <c r="U16" s="24">
         <f>'310.15(B)(19)'!D16*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>356.60948028420592</v>
+        <v>713.21896056841183</v>
       </c>
       <c r="V16" s="38">
         <f>'310.15(B)(19)'!E16*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>470.5657688964879</v>
+        <v>941.13153779297579</v>
       </c>
       <c r="W16">
         <f>'310.15(B)(17)'!F16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>117.5</v>
+        <v>235</v>
       </c>
       <c r="X16">
         <f>'310.15(B)(17)'!G16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="Y16">
         <f>'310.15(B)(17)'!H16*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>157.5</v>
+        <v>315</v>
       </c>
       <c r="Z16" s="38">
         <f>'310.15(B)(19)'!F16*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>233.01509761018858</v>
-      </c>
-      <c r="AA16" s="3">
+        <v>466.03019522037715</v>
+      </c>
+      <c r="AA16" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>7.9357572512559829E-2</v>
-      </c>
-      <c r="AB16" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB16" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>8.2219150637559815E-2</v>
-      </c>
-      <c r="AC16" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC16" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>8.5080728762559829E-2</v>
-      </c>
-      <c r="AD16" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>9.6527041262559815E-2</v>
-      </c>
-      <c r="AE16" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.10606563501255983</v>
-      </c>
-      <c r="AF16" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF16" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.11560422876255981</v>
-      </c>
-      <c r="AG16" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG16" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H16:$J16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.11226602563755984</v>
-      </c>
-      <c r="AH16" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH16" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H16:$J16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.11690665063755983</v>
-      </c>
-      <c r="AI16" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI16" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H16:$J16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.12154727563755983</v>
-      </c>
-      <c r="AJ16" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H16:$J16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.14010977563755983</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -6966,123 +6966,123 @@
       </c>
       <c r="G17" s="24">
         <f>'310.15(B)(16)'!C17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>82.5</v>
+        <v>165</v>
       </c>
       <c r="H17" s="24">
         <f>'310.15(B)(16)'!D17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="24">
         <f>'310.15(B)(16)'!E17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>112.5</v>
+        <v>225</v>
       </c>
       <c r="J17" s="24">
         <f>'310.15(B)(18)'!C17*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>163.28065233998618</v>
+        <v>326.56130467997235</v>
       </c>
       <c r="K17" s="24">
         <f>'310.15(B)(18)'!D17*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>168.38317272561073</v>
+        <v>336.76634545122147</v>
       </c>
       <c r="L17" s="38">
         <f>'310.15(B)(18)'!E17*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>174.61958653026298</v>
+        <v>349.23917306052596</v>
       </c>
       <c r="M17" s="24">
         <f>'310.15(B)(16)'!F17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="N17" s="24">
         <f>'310.15(B)(16)'!G17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>77.5</v>
+        <v>155</v>
       </c>
       <c r="O17" s="24">
         <f>'310.15(B)(16)'!H17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>87.5</v>
+        <v>175</v>
       </c>
       <c r="P17" s="38">
         <f>'310.15(B)(18)'!F17*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>128.69690305964187</v>
+        <v>257.39380611928374</v>
       </c>
       <c r="Q17" s="24">
         <f>'310.15(B)(17)'!C17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="R17" s="24">
         <f>'310.15(B)(17)'!D17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="S17" s="24">
         <f>'310.15(B)(17)'!E17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="T17" s="24">
         <f>'310.15(B)(19)'!C17*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>255.69296599074224</v>
+        <v>511.38593198148448</v>
       </c>
       <c r="U17" s="24">
         <f>'310.15(B)(19)'!D17*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>309.55290339455712</v>
+        <v>619.10580678911424</v>
       </c>
       <c r="V17" s="38">
         <f>'310.15(B)(19)'!E17*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>401.39827033579934</v>
+        <v>802.79654067159868</v>
       </c>
       <c r="W17">
         <f>'310.15(B)(17)'!F17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X17">
         <f>'310.15(B)(17)'!G17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Y17">
         <f>'310.15(B)(17)'!H17*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="Z17" s="38">
         <f>'310.15(B)(19)'!F17*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>198.99829503935814</v>
-      </c>
-      <c r="AA17" s="3">
+        <v>397.99659007871628</v>
+      </c>
+      <c r="AA17" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>9.4084874485845321E-2</v>
-      </c>
-      <c r="AB17" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB17" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>9.7673202610845306E-2</v>
-      </c>
-      <c r="AC17" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC17" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.10126153073584532</v>
-      </c>
-      <c r="AD17" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD17" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.11561484323584531</v>
-      </c>
-      <c r="AE17" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE17" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.12757593698584532</v>
-      </c>
-      <c r="AF17" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF17" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.13953703073584531</v>
-      </c>
-      <c r="AG17" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG17" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H17:$J17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.13945289011084533</v>
-      </c>
-      <c r="AH17" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH17" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H17:$J17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.14548570261084531</v>
-      </c>
-      <c r="AI17" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI17" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H17:$J17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.15151851511084533</v>
-      </c>
-      <c r="AJ17" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ17" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H17:$J17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.17564976511084535</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
@@ -7105,123 +7105,123 @@
       </c>
       <c r="G18" s="24">
         <f>'310.15(B)(16)'!C18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>72.5</v>
+        <v>145</v>
       </c>
       <c r="H18" s="24">
         <f>'310.15(B)(16)'!D18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>87.5</v>
+        <v>175</v>
       </c>
       <c r="I18" s="24">
         <f>'310.15(B)(16)'!E18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>97.5</v>
+        <v>195</v>
       </c>
       <c r="J18" s="24">
         <f>'310.15(B)(18)'!C18*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>142.30362408797404</v>
+        <v>284.60724817594809</v>
       </c>
       <c r="K18" s="24">
         <f>'310.15(B)(18)'!D18*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>147.40614447359863</v>
+        <v>294.81228894719726</v>
       </c>
       <c r="L18" s="38">
         <f>'310.15(B)(18)'!E18*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>154.77645169727856</v>
+        <v>309.55290339455712</v>
       </c>
       <c r="M18" s="24">
         <f>'310.15(B)(16)'!F18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>57.5</v>
+        <v>115</v>
       </c>
       <c r="N18" s="24">
         <f>'310.15(B)(16)'!G18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>67.5</v>
+        <v>135</v>
       </c>
       <c r="O18" s="24">
         <f>'310.15(B)(16)'!H18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="P18" s="38">
         <f>'310.15(B)(18)'!F18*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>112.25544848374049</v>
+        <v>224.51089696748099</v>
       </c>
       <c r="Q18" s="24">
         <f>'310.15(B)(17)'!C18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>112.5</v>
+        <v>225</v>
       </c>
       <c r="R18" s="24">
         <f>'310.15(B)(17)'!D18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>132.5</v>
+        <v>265</v>
       </c>
       <c r="S18" s="24">
         <f>'310.15(B)(17)'!E18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="T18" s="24">
         <f>'310.15(B)(19)'!C18*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>221.10921671039793</v>
+        <v>442.21843342079586</v>
       </c>
       <c r="U18" s="24">
         <f>'310.15(B)(19)'!D18*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>264.7641133429637</v>
+        <v>529.52822668592739</v>
       </c>
       <c r="V18" s="38">
         <f>'310.15(B)(19)'!E18*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>335.06550532267994</v>
+        <v>670.13101064535988</v>
       </c>
       <c r="W18">
         <f>'310.15(B)(17)'!F18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>87.5</v>
+        <v>175</v>
       </c>
       <c r="X18">
         <f>'310.15(B)(17)'!G18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="Y18">
         <f>'310.15(B)(17)'!H18*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>117.5</v>
+        <v>235</v>
       </c>
       <c r="Z18" s="38">
         <f>'310.15(B)(19)'!F18*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>172.91874640172145</v>
-      </c>
-      <c r="AA18" s="3">
+        <v>345.8374928034429</v>
+      </c>
+      <c r="AA18" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.11372661905741629</v>
-      </c>
-      <c r="AB18" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB18" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.11826880655741631</v>
-      </c>
-      <c r="AC18" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC18" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.12281099405741631</v>
-      </c>
-      <c r="AD18" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD18" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.14097974405741631</v>
-      </c>
-      <c r="AE18" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE18" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.15612036905741628</v>
-      </c>
-      <c r="AF18" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF18" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.17126099405741629</v>
-      </c>
-      <c r="AG18" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG18" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H18:$J18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.16709380655741629</v>
-      </c>
-      <c r="AH18" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH18" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H18:$J18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.17451880655741631</v>
-      </c>
-      <c r="AI18" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI18" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H18:$J18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.18194380655741629</v>
-      </c>
-      <c r="AJ18" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ18" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H18:$J18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.2116438065574163</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
@@ -7244,123 +7244,123 @@
       </c>
       <c r="G19" s="24">
         <f>'310.15(B)(16)'!C19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>62.5</v>
+        <v>125</v>
       </c>
       <c r="H19" s="24">
         <f>'310.15(B)(16)'!D19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="I19" s="24">
         <f>'310.15(B)(16)'!E19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="J19" s="24">
         <f>'310.15(B)(18)'!C19*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>121.89354254547578</v>
+        <v>243.78708509095156</v>
       </c>
       <c r="K19" s="24">
         <f>'310.15(B)(18)'!D19*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>129.83079647866955</v>
+        <v>259.66159295733911</v>
       </c>
       <c r="L19" s="38">
         <f>'310.15(B)(18)'!E19*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>138.33499712137717</v>
+        <v>276.66999424275434</v>
       </c>
       <c r="M19" s="24">
         <f>'310.15(B)(16)'!F19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N19" s="24">
         <f>'310.15(B)(16)'!G19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="O19" s="24">
         <f>'310.15(B)(16)'!H19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>67.5</v>
+        <v>135</v>
       </c>
       <c r="P19" s="38">
         <f>'310.15(B)(18)'!F19*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>95.813993907839105</v>
+        <v>191.62798781567821</v>
       </c>
       <c r="Q19" s="24">
         <f>'310.15(B)(17)'!C19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>97.5</v>
+        <v>195</v>
       </c>
       <c r="R19" s="24">
         <f>'310.15(B)(17)'!D19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="S19" s="24">
         <f>'310.15(B)(17)'!E19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="T19" s="24">
         <f>'310.15(B)(19)'!C19*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>192.19493452519205</v>
+        <v>384.38986905038411</v>
       </c>
       <c r="U19" s="24">
         <f>'310.15(B)(19)'!D19*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>226.21173709602249</v>
+        <v>452.42347419204498</v>
       </c>
       <c r="V19" s="38">
         <f>'310.15(B)(19)'!E19*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>301.61564946136332</v>
+        <v>603.23129892272664</v>
       </c>
       <c r="W19">
         <f>'310.15(B)(17)'!F19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="X19">
         <f>'310.15(B)(17)'!G19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Y19">
         <f>'310.15(B)(17)'!H19*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>102.5</v>
+        <v>205</v>
       </c>
       <c r="Z19" s="38">
         <f>'310.15(B)(19)'!F19*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>149.10698460214013</v>
-      </c>
-      <c r="AA19" s="3">
+        <v>298.21396920428026</v>
+      </c>
+      <c r="AA19" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.13202223353070178</v>
-      </c>
-      <c r="AB19" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB19" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.13747285853070179</v>
-      </c>
-      <c r="AC19" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC19" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.14292348353070181</v>
-      </c>
-      <c r="AD19" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD19" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.16472598353070181</v>
-      </c>
-      <c r="AE19" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE19" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.18289473353070179</v>
-      </c>
-      <c r="AF19" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF19" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.20106348353070178</v>
-      </c>
-      <c r="AG19" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG19" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H19:$J19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.20319160853070181</v>
-      </c>
-      <c r="AH19" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH19" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H19:$J19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.2124728585307018</v>
-      </c>
-      <c r="AI19" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI19" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H19:$J19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.22175410853070182</v>
-      </c>
-      <c r="AJ19" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ19" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H19:$J19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.25887910853070178</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="C20" s="68">
         <f>VLOOKUP(UI!E14,'310.15(b)(3)(a)'!A1:B7,2,FALSE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="73"/>
       <c r="E20" s="1">
@@ -7383,123 +7383,123 @@
       </c>
       <c r="G20" s="24">
         <f>'310.15(B)(16)'!C20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="H20" s="24">
         <f>'310.15(B)(16)'!D20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="I20" s="24">
         <f>'310.15(B)(16)'!E20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>72.5</v>
+        <v>145</v>
       </c>
       <c r="J20" s="24">
         <f>'310.15(B)(18)'!C20*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>105.45208796957439</v>
+        <v>210.90417593914879</v>
       </c>
       <c r="K20" s="24">
         <f>'310.15(B)(18)'!D20*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>111.68850177422665</v>
+        <v>223.3770035484533</v>
       </c>
       <c r="L20" s="38">
         <f>'310.15(B)(18)'!E20*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>121.89354254547578</v>
+        <v>243.78708509095156</v>
       </c>
       <c r="M20" s="24">
         <f>'310.15(B)(16)'!F20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>42.5</v>
+        <v>85</v>
       </c>
       <c r="N20" s="24">
         <f>'310.15(B)(16)'!G20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O20" s="24">
         <f>'310.15(B)(16)'!H20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>57.5</v>
+        <v>115</v>
       </c>
       <c r="P20" s="38">
         <f>'310.15(B)(18)'!F20*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>82.207272879506917</v>
+        <v>164.41454575901383</v>
       </c>
       <c r="Q20" s="24">
         <f>'310.15(B)(17)'!C20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>82.5</v>
+        <v>165</v>
       </c>
       <c r="R20" s="24">
         <f>'310.15(B)(17)'!D20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>97.5</v>
+        <v>195</v>
       </c>
       <c r="S20" s="24">
         <f>'310.15(B)(17)'!E20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="T20" s="24">
         <f>'310.15(B)(19)'!C20*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>166.11538588755536</v>
+        <v>332.23077177511072</v>
       </c>
       <c r="U20" s="24">
         <f>'310.15(B)(19)'!D20*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>195.02966807276124</v>
+        <v>390.05933614552248</v>
       </c>
       <c r="V20" s="38">
         <f>'310.15(B)(19)'!E20*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>249.45655218608997</v>
+        <v>498.91310437217993</v>
       </c>
       <c r="W20">
         <f>'310.15(B)(17)'!F20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="X20">
         <f>'310.15(B)(17)'!G20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>77.5</v>
+        <v>155</v>
       </c>
       <c r="Y20">
         <f>'310.15(B)(17)'!H20*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>87.5</v>
+        <v>175</v>
       </c>
       <c r="Z20" s="38">
         <f>'310.15(B)(19)'!F20*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>129.26384976915571</v>
-      </c>
-      <c r="AA20" s="3">
+        <v>258.52769953831142</v>
+      </c>
+      <c r="AA20" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.16861346247727277</v>
-      </c>
-      <c r="AB20" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB20" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.17588096247727278</v>
-      </c>
-      <c r="AC20" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC20" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.18314846247727276</v>
-      </c>
-      <c r="AD20" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD20" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.21221846247727277</v>
-      </c>
-      <c r="AE20" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE20" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.23644346247727277</v>
-      </c>
-      <c r="AF20" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF20" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.26066846247727277</v>
-      </c>
-      <c r="AG20" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG20" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H20:$J20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.24865439997727276</v>
-      </c>
-      <c r="AH20" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH20" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H20:$J20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.26025596247727278</v>
-      </c>
-      <c r="AI20" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI20" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H20:$J20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.27185752497727278</v>
-      </c>
-      <c r="AJ20" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ20" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H20:$J20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.31826377497727282</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
@@ -7519,123 +7519,123 @@
       </c>
       <c r="G21" s="24">
         <f>'310.15(B)(16)'!C21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>47.5</v>
+        <v>95</v>
       </c>
       <c r="H21" s="24">
         <f>'310.15(B)(16)'!D21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>57.5</v>
+        <v>115</v>
       </c>
       <c r="I21" s="24">
         <f>'310.15(B)(16)'!E21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="J21" s="24">
         <f>'310.15(B)(18)'!C21*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>90.711473522214533</v>
+        <v>181.42294704442907</v>
       </c>
       <c r="K21" s="24">
         <f>'310.15(B)(18)'!D21*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>96.947887326866791</v>
+        <v>193.89577465373358</v>
       </c>
       <c r="L21" s="38">
         <f>'310.15(B)(18)'!E21*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>108.28682151714361</v>
+        <v>216.57364303428722</v>
       </c>
       <c r="M21" s="24">
         <f>'310.15(B)(16)'!F21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="N21" s="24">
         <f>'310.15(B)(16)'!G21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O21" s="24">
         <f>'310.15(B)(16)'!H21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P21" s="38">
         <f>'310.15(B)(18)'!F21*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>70.301391979716271</v>
+        <v>140.60278395943254</v>
       </c>
       <c r="Q21" s="24">
         <f>'310.15(B)(17)'!C21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="R21" s="24">
         <f>'310.15(B)(17)'!D21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="S21" s="24">
         <f>'310.15(B)(17)'!E21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="T21" s="24">
         <f>'310.15(B)(19)'!C21*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>144.57141092602942</v>
+        <v>289.14282185205883</v>
       </c>
       <c r="U21" s="24">
         <f>'310.15(B)(19)'!D21*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>166.11538588755536</v>
+        <v>332.23077177511072</v>
       </c>
       <c r="V21" s="38">
         <f>'310.15(B)(19)'!E21*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>216.00669632477337</v>
+        <v>432.01339264954674</v>
       </c>
       <c r="W21">
         <f>'310.15(B)(17)'!F21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="X21">
         <f>'310.15(B)(17)'!G21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>67.5</v>
+        <v>135</v>
       </c>
       <c r="Y21">
         <f>'310.15(B)(17)'!H21*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="Z21" s="38">
         <f>'310.15(B)(19)'!F21*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>112.25544848374049</v>
-      </c>
-      <c r="AA21" s="3">
+        <v>224.51089696748099</v>
+      </c>
+      <c r="AA21" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.20429658747727275</v>
-      </c>
-      <c r="AB21" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB21" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.21338096247727276</v>
-      </c>
-      <c r="AC21" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC21" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.22246533747727282</v>
-      </c>
-      <c r="AD21" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD21" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.25880283747727278</v>
-      </c>
-      <c r="AE21" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE21" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.28908408747727277</v>
-      </c>
-      <c r="AF21" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF21" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.3193653374772728</v>
-      </c>
-      <c r="AG21" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG21" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H21:$J21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.31103096247727274</v>
-      </c>
-      <c r="AH21" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH21" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H21:$J21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.32588096247727283</v>
-      </c>
-      <c r="AI21" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI21" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H21:$J21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.3407309624772728</v>
-      </c>
-      <c r="AJ21" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ21" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H21:$J21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.40013096247727276</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
@@ -7653,123 +7653,123 @@
       </c>
       <c r="G22" s="24">
         <f>'310.15(B)(16)'!C22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>42.5</v>
+        <v>85</v>
       </c>
       <c r="H22" s="24">
         <f>'310.15(B)(16)'!D22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I22" s="24">
         <f>'310.15(B)(16)'!E22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>57.5</v>
+        <v>115</v>
       </c>
       <c r="J22" s="24">
         <f>'310.15(B)(18)'!C22*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>81.073379460479245</v>
+        <v>162.14675892095849</v>
       </c>
       <c r="K22" s="24">
         <f>'310.15(B)(18)'!D22*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>86.175899846103803</v>
+        <v>172.35179969220761</v>
       </c>
       <c r="L22" s="38">
         <f>'310.15(B)(18)'!E22*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>94.113153779297576</v>
+        <v>188.22630755859515</v>
       </c>
       <c r="M22" s="24">
         <f>'310.15(B)(16)'!F22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>32.5</v>
+        <v>65</v>
       </c>
       <c r="N22" s="24">
         <f>'310.15(B)(16)'!G22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="O22" s="24">
         <f>'310.15(B)(16)'!H22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>42.5</v>
+        <v>85</v>
       </c>
       <c r="P22" s="38">
         <f>'310.15(B)(18)'!F22*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>61.797191337008655</v>
+        <v>123.59438267401731</v>
       </c>
       <c r="Q22" s="24">
         <f>'310.15(B)(17)'!C22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R22" s="24">
         <f>'310.15(B)(17)'!D22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>72.5</v>
+        <v>145</v>
       </c>
       <c r="S22" s="24">
         <f>'310.15(B)(17)'!E22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>82.5</v>
+        <v>165</v>
       </c>
       <c r="T22" s="24">
         <f>'310.15(B)(19)'!C22*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>121.32659583596194</v>
+        <v>242.65319167192388</v>
       </c>
       <c r="U22" s="24">
         <f>'310.15(B)(19)'!D22*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>142.87057079748789</v>
+        <v>285.74114159497577</v>
       </c>
       <c r="V22" s="38">
         <f>'310.15(B)(19)'!E22*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>185.39157401102597</v>
+        <v>370.78314802205193</v>
       </c>
       <c r="W22">
         <f>'310.15(B)(17)'!F22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>47.5</v>
+        <v>95</v>
       </c>
       <c r="X22">
         <f>'310.15(B)(17)'!G22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>57.5</v>
+        <v>115</v>
       </c>
       <c r="Y22">
         <f>'310.15(B)(17)'!H22*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="Z22" s="38">
         <f>'310.15(B)(19)'!F22*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>96.380940617352948</v>
-      </c>
-      <c r="AA22" s="3">
+        <v>192.7618812347059</v>
+      </c>
+      <c r="AA22" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.24980859767384372</v>
-      </c>
-      <c r="AB22" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB22" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.26116406642384371</v>
-      </c>
-      <c r="AC22" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC22" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.27251953517384375</v>
-      </c>
-      <c r="AD22" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD22" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.31794141017384375</v>
-      </c>
-      <c r="AE22" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE22" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.35579297267384374</v>
-      </c>
-      <c r="AF22" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF22" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.39364453517384368</v>
-      </c>
-      <c r="AG22" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG22" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H22:$J22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.38322656642384378</v>
-      </c>
-      <c r="AH22" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH22" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H22:$J22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.40178906642384377</v>
-      </c>
-      <c r="AI22" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI22" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H22:$J22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.4203515664238438</v>
-      </c>
-      <c r="AJ22" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ22" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H22:$J22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.49460156642384384</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
@@ -7792,123 +7792,123 @@
       </c>
       <c r="G23" s="24">
         <f>'310.15(B)(16)'!C23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H23" s="24">
         <f>'310.15(B)(16)'!D23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>42.5</v>
+        <v>85</v>
       </c>
       <c r="I23" s="24">
         <f>'310.15(B)(16)'!E23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>47.5</v>
+        <v>95</v>
       </c>
       <c r="J23" s="24">
         <f>'310.15(B)(18)'!C23*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>68.0336051416609</v>
+        <v>136.0672102833218</v>
       </c>
       <c r="K23" s="24">
         <f>'310.15(B)(18)'!D23*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>70.8683386892301</v>
+        <v>141.7366773784602</v>
       </c>
       <c r="L23" s="38">
         <f>'310.15(B)(18)'!E23*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>83.908113008048446</v>
+        <v>167.81622601609689</v>
       </c>
       <c r="M23" s="24">
         <f>'310.15(B)(16)'!F23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>27.5</v>
+        <v>55</v>
       </c>
       <c r="N23" s="24">
         <f>'310.15(B)(16)'!G23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>32.5</v>
+        <v>65</v>
       </c>
       <c r="O23" s="24">
         <f>'310.15(B)(16)'!H23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="P23" s="38">
         <f>'310.15(B)(18)'!F23*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>53.292990694301039</v>
+        <v>106.58598138860208</v>
       </c>
       <c r="Q23" s="24">
         <f>'310.15(B)(17)'!C23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>52.5</v>
+        <v>105</v>
       </c>
       <c r="R23" s="24">
         <f>'310.15(B)(17)'!D23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>62.5</v>
+        <v>125</v>
       </c>
       <c r="S23" s="24">
         <f>'310.15(B)(17)'!E23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="T23" s="24">
         <f>'310.15(B)(19)'!C23*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>107.71987480762976</v>
+        <v>215.43974961525953</v>
       </c>
       <c r="U23" s="24">
         <f>'310.15(B)(19)'!D23*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>124.72827609304498</v>
+        <v>249.45655218608997</v>
       </c>
       <c r="V23" s="38">
         <f>'310.15(B)(19)'!E23*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>157.61118524484775</v>
+        <v>315.22237048969549</v>
       </c>
       <c r="W23">
         <f>'310.15(B)(17)'!F23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="X23">
         <f>'310.15(B)(17)'!G23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y23">
         <f>'310.15(B)(17)'!H23*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>57.5</v>
+        <v>115</v>
       </c>
       <c r="Z23" s="38">
         <f>'310.15(B)(19)'!F23*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>83.908113008048446</v>
-      </c>
-      <c r="AA23" s="3">
+        <v>167.81622601609689</v>
+      </c>
+      <c r="AA23" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.30378733714712919</v>
-      </c>
-      <c r="AB23" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB23" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.31786811839712925</v>
-      </c>
-      <c r="AC23" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC23" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.3319488996471292</v>
-      </c>
-      <c r="AD23" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD23" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.38827202464712923</v>
-      </c>
-      <c r="AE23" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE23" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.43520796214712926</v>
-      </c>
-      <c r="AF23" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF23" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.48214389964712911</v>
-      </c>
-      <c r="AG23" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H23:$J23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.48170093089712923</v>
-      </c>
-      <c r="AH23" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH23" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H23:$J23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.50536811839712925</v>
-      </c>
-      <c r="AI23" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI23" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H23:$J23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.52903530589712933</v>
-      </c>
-      <c r="AJ23" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ23" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H23:$J23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.62370405589712929</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
@@ -7931,123 +7931,123 @@
       </c>
       <c r="G24" s="24">
         <f>'310.15(B)(16)'!C24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>27.5</v>
+        <v>55</v>
       </c>
       <c r="H24" s="24">
         <f>'310.15(B)(16)'!D24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>32.5</v>
+        <v>65</v>
       </c>
       <c r="I24" s="24">
         <f>'310.15(B)(16)'!E24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="J24" s="24">
         <f>'310.15(B)(18)'!C24*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>54.426884113328725</v>
+        <v>108.85376822665745</v>
       </c>
       <c r="K24" s="24">
         <f>'310.15(B)(18)'!D24*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>62.364138046522491</v>
+        <v>124.72827609304498</v>
       </c>
       <c r="L24" s="38">
         <f>'310.15(B)(18)'!E24*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>66.332765013119385</v>
+        <v>132.66553002623877</v>
       </c>
       <c r="M24" s="24">
         <f>'310.15(B)(16)'!F24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N24" s="24">
         <f>'310.15(B)(16)'!G24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="O24" s="24">
         <f>'310.15(B)(16)'!H24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>27.5</v>
+        <v>55</v>
       </c>
       <c r="P24" s="38">
         <f>'310.15(B)(18)'!F24*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>42.521003213538066</v>
+        <v>85.042006427076132</v>
       </c>
       <c r="Q24" s="24">
         <f>'310.15(B)(17)'!C24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R24" s="24">
         <f>'310.15(B)(17)'!D24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>47.5</v>
+        <v>95</v>
       </c>
       <c r="S24" s="24">
         <f>'310.15(B)(17)'!E24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>52.5</v>
+        <v>105</v>
       </c>
       <c r="T24" s="24">
         <f>'310.15(B)(19)'!C24*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>87.876739974645332</v>
+        <v>175.75347994929066</v>
       </c>
       <c r="U24" s="24">
         <f>'310.15(B)(19)'!D24*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>93.546207069783748</v>
+        <v>187.0924141395675</v>
       </c>
       <c r="V24" s="38">
         <f>'310.15(B)(19)'!E24*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>116.22407545033738</v>
+        <v>232.44815090067476</v>
       </c>
       <c r="W24">
         <f>'310.15(B)(17)'!F24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="X24">
         <f>'310.15(B)(17)'!G24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="Y24">
         <f>'310.15(B)(17)'!H24*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>42.5</v>
+        <v>85</v>
       </c>
       <c r="Z24" s="38">
         <f>'310.15(B)(19)'!F24*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>63.498031465550177</v>
-      </c>
-      <c r="AA24" s="3">
+        <v>126.99606293110035</v>
+      </c>
+      <c r="AA24" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.46617760754027121</v>
-      </c>
-      <c r="AB24" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB24" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.48843432629027123</v>
-      </c>
-      <c r="AC24" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.51069104504027119</v>
-      </c>
-      <c r="AD24" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD24" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.59971792004027125</v>
-      </c>
-      <c r="AE24" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE24" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.67390698254027104</v>
-      </c>
-      <c r="AF24" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF24" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.74809604504027116</v>
-      </c>
-      <c r="AG24" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H24:$J24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.75084526379027117</v>
-      </c>
-      <c r="AH24" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH24" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H24:$J24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.78843432629027121</v>
-      </c>
-      <c r="AI24" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI24" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H24:$J24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.82602338879027126</v>
-      </c>
-      <c r="AJ24" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ24" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H24:$J24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.97637963879027123</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
@@ -8070,123 +8070,123 @@
       </c>
       <c r="G25" s="24">
         <f>'310.15(B)(16)'!C25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H25" s="24">
         <f>'310.15(B)(16)'!D25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I25" s="24">
         <f>'310.15(B)(16)'!E25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>27.5</v>
+        <v>55</v>
       </c>
       <c r="J25" s="24">
         <f>'310.15(B)(18)'!C25*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>43.087949923051902</v>
+        <v>86.175899846103803</v>
       </c>
       <c r="K25" s="24">
         <f>'310.15(B)(18)'!D25*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>47.056576889648788</v>
+        <v>94.113153779297576</v>
       </c>
       <c r="L25" s="38">
         <f>'310.15(B)(18)'!E25*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>52.726043984787196</v>
+        <v>105.45208796957439</v>
       </c>
       <c r="M25" s="24">
         <f>'310.15(B)(16)'!F25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="N25" s="24">
         <f>'310.15(B)(16)'!G25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O25" s="24">
         <f>'310.15(B)(16)'!H25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>22.5</v>
+        <v>45</v>
       </c>
       <c r="P25" s="38">
         <f>'310.15(B)(18)'!F25*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>32.315962442288928</v>
+        <v>64.631924884577856</v>
       </c>
       <c r="Q25" s="24">
         <f>'310.15(B)(17)'!C25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R25" s="24">
         <f>'310.15(B)(17)'!D25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="S25" s="24">
         <f>'310.15(B)(17)'!E25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T25" s="24">
         <f>'310.15(B)(19)'!C25*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>60.096351208467134</v>
+        <v>120.19270241693427</v>
       </c>
       <c r="U25" s="24">
         <f>'310.15(B)(19)'!D25*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>70.301391979716271</v>
+        <v>140.60278395943254</v>
       </c>
       <c r="V25" s="38">
         <f>'310.15(B)(19)'!E25*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>80.506432750965402</v>
+        <v>161.0128655019308</v>
       </c>
       <c r="W25">
         <f>'310.15(B)(17)'!F25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>22.5</v>
+        <v>45</v>
       </c>
       <c r="X25">
         <f>'310.15(B)(17)'!G25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>27.5</v>
+        <v>55</v>
       </c>
       <c r="Y25">
         <f>'310.15(B)(17)'!H25*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z25" s="38">
         <f>'310.15(B)(19)'!F25*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>47.056576889648788</v>
-      </c>
-      <c r="AA25" s="3">
+        <v>94.113153779297576</v>
+      </c>
+      <c r="AA25" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.72533431576355667</v>
-      </c>
-      <c r="AB25" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB25" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.76076337826355689</v>
-      </c>
-      <c r="AC25" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC25" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.79619244076355689</v>
-      </c>
-      <c r="AD25" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD25" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0.93790869076355687</v>
-      </c>
-      <c r="AE25" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE25" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.0560055657635568</v>
-      </c>
-      <c r="AF25" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF25" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.1741024407635565</v>
-      </c>
-      <c r="AG25" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG25" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H25:$J25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.1879352532635568</v>
-      </c>
-      <c r="AH25" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH25" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H25:$J25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.2482633782635568</v>
-      </c>
-      <c r="AI25" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI25" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H25:$J25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.3085915032635567</v>
-      </c>
-      <c r="AJ25" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ25" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H25:$J25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.5499040032635567</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
@@ -8209,123 +8209,123 @@
       </c>
       <c r="G26" s="24">
         <f>'310.15(B)(16)'!C26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H26" s="24">
         <f>'310.15(B)(16)'!D26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="I26" s="24">
         <f>'310.15(B)(16)'!E26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J26" s="24">
         <f>'310.15(B)(18)'!C26*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>31.182069023261246</v>
+        <v>62.364138046522491</v>
       </c>
       <c r="K26" s="24">
         <f>'310.15(B)(18)'!D26*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>34.01680257083045</v>
+        <v>68.0336051416609</v>
       </c>
       <c r="L26" s="38">
         <f>'310.15(B)(18)'!E26*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>41.38710979451038</v>
+        <v>82.77421958902076</v>
       </c>
       <c r="M26" s="24">
         <f>'310.15(B)(16)'!F26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="N26" s="24">
         <f>'310.15(B)(16)'!G26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O26" s="24">
         <f>'310.15(B)(16)'!H26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="P26" s="38">
         <f>'310.15(B)(18)'!F26*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>24.945655218608998</v>
+        <v>49.891310437217996</v>
       </c>
       <c r="Q26" s="24">
         <f>'310.15(B)(17)'!C26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R26" s="24">
         <f>'310.15(B)(17)'!D26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S26" s="24">
         <f>'310.15(B)(17)'!E26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>27.5</v>
+        <v>55</v>
       </c>
       <c r="T26" s="24">
         <f>'310.15(B)(19)'!C26*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>45.355736761107266</v>
+        <v>90.711473522214533</v>
       </c>
       <c r="U26" s="24">
         <f>'310.15(B)(19)'!D26*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>51.025203856245675</v>
+        <v>102.05040771249135</v>
       </c>
       <c r="V26" s="38">
         <f>'310.15(B)(19)'!E26*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>60.663297917980969</v>
+        <v>121.32659583596194</v>
       </c>
       <c r="W26">
         <f>'310.15(B)(17)'!F26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="X26">
         <f>'310.15(B)(17)'!G26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Y26">
         <f>'310.15(B)(17)'!H26*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>22.5</v>
+        <v>45</v>
       </c>
       <c r="Z26" s="38">
         <f>'310.15(B)(19)'!F26*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>35.717642699371972</v>
-      </c>
-      <c r="AA26" s="3">
+        <v>71.435285398743943</v>
+      </c>
+      <c r="AA26" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.0990990243169856</v>
-      </c>
-      <c r="AB26" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.1536052743169858</v>
-      </c>
-      <c r="AC26" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC26" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.2081115243169858</v>
-      </c>
-      <c r="AD26" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD26" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.4261365243169859</v>
-      </c>
-      <c r="AE26" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE26" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.6078240243169859</v>
-      </c>
-      <c r="AF26" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF26" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.7895115243169855</v>
-      </c>
-      <c r="AG26" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H26:$J26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.8107927743169858</v>
-      </c>
-      <c r="AH26" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH26" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H26:$J26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.9036052743169856</v>
-      </c>
-      <c r="AI26" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI26" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H26:$J26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.9964177743169862</v>
-      </c>
-      <c r="AJ26" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ26" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H26:$J26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>2.3676677743169861</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
@@ -8348,123 +8348,123 @@
       </c>
       <c r="G27" s="24">
         <f>'310.15(B)(16)'!C27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H27" s="24">
         <f>'310.15(B)(16)'!D27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="I27" s="24">
         <f>'310.15(B)(16)'!E27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J27" s="24">
         <f>'310.15(B)(18)'!C27*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>24.378708509095155</v>
+        <v>48.75741701819031</v>
       </c>
       <c r="K27" s="24">
         <f>'310.15(B)(18)'!D27*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>25.512601928122837</v>
+        <v>51.025203856245675</v>
       </c>
       <c r="L27" s="38">
         <f>'310.15(B)(18)'!E27*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>30.615122313747406</v>
+        <v>61.230244627494812</v>
       </c>
       <c r="M27" s="24">
         <f>'310.15(B)(16)'!F27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N27" s="24">
         <f>'310.15(B)(16)'!G27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O27" s="24">
         <f>'310.15(B)(16)'!H27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="P27" s="38">
         <f>'310.15(B)(18)'!F27*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>17.008401285415225</v>
+        <v>34.01680257083045</v>
       </c>
       <c r="Q27" s="24">
         <f>'310.15(B)(17)'!C27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="R27" s="24">
         <f>'310.15(B)(17)'!D27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="S27" s="24">
         <f>'310.15(B)(17)'!E27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="T27" s="24">
         <f>'310.15(B)(19)'!C27*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>34.01680257083045</v>
+        <v>68.0336051416609</v>
       </c>
       <c r="U27" s="24">
         <f>'310.15(B)(19)'!D27*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>38.552376246941179</v>
+        <v>77.104752493882359</v>
       </c>
       <c r="V27" s="38">
         <f>'310.15(B)(19)'!E27*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>44.221843342079588</v>
+        <v>88.443686684159175</v>
       </c>
       <c r="W27">
         <f>'310.15(B)(17)'!F27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="X27">
         <f>'310.15(B)(17)'!G27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y27">
         <f>'310.15(B)(17)'!H27*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="Z27" s="38">
         <f>'310.15(B)(19)'!F27*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>26.64649534715052</v>
-      </c>
-      <c r="AA27" s="3">
+        <v>53.292990694301039</v>
+      </c>
+      <c r="AA27" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.8150317841834134</v>
-      </c>
-      <c r="AB27" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB27" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.9058755341834133</v>
-      </c>
-      <c r="AC27" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC27" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>1.9967192841834134</v>
-      </c>
-      <c r="AD27" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD27" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>2.3600942841834134</v>
-      </c>
-      <c r="AE27" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE27" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>2.6629067841834133</v>
-      </c>
-      <c r="AF27" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF27" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>2.9657192841834124</v>
-      </c>
-      <c r="AG27" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG27" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H27:$J27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>2.8823755341834132</v>
-      </c>
-      <c r="AH27" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH27" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H27:$J27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.0308755341834135</v>
-      </c>
-      <c r="AI27" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI27" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H27:$J27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.1793755341834133</v>
-      </c>
-      <c r="AJ27" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ27" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H27:$J27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.7733755341834136</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
@@ -8487,27 +8487,27 @@
       </c>
       <c r="G28" s="24">
         <f>'310.15(B)(16)'!C28*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H28" s="24">
         <f>'310.15(B)(16)'!D28*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I28" s="24">
         <f>'310.15(B)(16)'!E28*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="J28" s="24">
         <f>'310.15(B)(18)'!C28*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>19.27618812347059</v>
+        <v>38.552376246941179</v>
       </c>
       <c r="K28" s="24">
         <f>'310.15(B)(18)'!D28*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>20.410081542498272</v>
+        <v>40.820163084996544</v>
       </c>
       <c r="L28" s="38">
         <f>'310.15(B)(18)'!E28*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>22.110921671039794</v>
+        <v>44.221843342079588</v>
       </c>
       <c r="M28" s="24">
         <f>'310.15(B)(16)'!F28*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
@@ -8527,27 +8527,27 @@
       </c>
       <c r="Q28" s="24">
         <f>'310.15(B)(17)'!C28*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="R28" s="24">
         <f>'310.15(B)(17)'!D28*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S28" s="24">
         <f>'310.15(B)(17)'!E28*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="T28" s="24">
         <f>'310.15(B)(19)'!C28*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>26.07954863763668</v>
+        <v>52.159097275273361</v>
       </c>
       <c r="U28" s="24">
         <f>'310.15(B)(19)'!D28*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>30.615122313747406</v>
+        <v>61.230244627494812</v>
       </c>
       <c r="V28" s="38">
         <f>'310.15(B)(19)'!E28*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
-        <v>33.449855861316607</v>
+        <v>66.899711722633214</v>
       </c>
       <c r="W28">
         <f>'310.15(B)(17)'!F28*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
@@ -8565,45 +8565,45 @@
         <f>'310.15(B)(19)'!F28*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA28" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>2.7985879815498405</v>
-      </c>
-      <c r="AB28" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB28" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>2.9393957940498407</v>
-      </c>
-      <c r="AC28" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC28" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.0802036065498415</v>
-      </c>
-      <c r="AD28" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD28" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.6434348565498409</v>
-      </c>
-      <c r="AE28" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE28" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.1127942315498407</v>
-      </c>
-      <c r="AF28" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF28" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>4.5821536065498405</v>
-      </c>
-      <c r="AG28" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H28:$J28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.3145794049840527E-2</v>
-      </c>
-      <c r="AH28" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH28" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H28:$J28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.3145794049840527E-2</v>
-      </c>
-      <c r="AI28" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI28" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H28:$J28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.3145794049840527E-2</v>
-      </c>
-      <c r="AJ28" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ28" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H28:$J28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>3.3145794049840527E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
@@ -8634,7 +8634,7 @@
       </c>
       <c r="I29" s="24">
         <f>'310.15(B)(16)'!E29*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J29" s="24">
         <f>'310.15(B)(18)'!C29*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="S29" s="24">
         <f>'310.15(B)(17)'!E29*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="T29" s="24">
         <f>'310.15(B)(19)'!C29*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -8704,45 +8704,45 @@
         <f>'310.15(B)(19)'!F29*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB29" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC29" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD29" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE29" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF29" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG29" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H29:$J29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH29" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H29:$J29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI29" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H29:$J29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ29" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H29:$J29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="I30" s="24">
         <f>'310.15(B)(16)'!E30*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J30" s="24">
         <f>'310.15(B)(18)'!C30*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="S30" s="24">
         <f>'310.15(B)(17)'!E30*'wire calculator'!$C$18*'wire calculator'!$C$20</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="T30" s="24">
         <f>'310.15(B)(19)'!C30*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
@@ -8843,45 +8843,45 @@
         <f>'310.15(B)(19)'!F30*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AA30" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB30" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC30" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD30" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" s="29" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG30" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H30:$J30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H30:$J30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" s="3" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H30:$J30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="46">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ30" s="46" t="e">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H30:$J30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
@@ -9053,11 +9053,11 @@
       <c r="F33" s="35"/>
       <c r="G33" s="35">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!G5:G30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="H33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!H5:H30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="I33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!I5:I30,-1))</f>
@@ -9065,39 +9065,39 @@
       </c>
       <c r="J33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!J16:J30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="K33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!K16:K30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="L33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!L16:L30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="M33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!M5:M30,-1))</f>
-        <v>6530</v>
+        <v>4110</v>
       </c>
       <c r="N33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!N5:N30,-1))</f>
-        <v>6530</v>
+        <v>4110</v>
       </c>
       <c r="O33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!O5:O30,-1))</f>
-        <v>6530</v>
+        <v>4110</v>
       </c>
       <c r="P33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!P16:P30,-1))</f>
-        <v>6530</v>
+        <v>4110</v>
       </c>
       <c r="Q33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!Q5:Q30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="R33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!R5:R30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="S33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!S5:S30,-1))</f>
@@ -9105,71 +9105,71 @@
       </c>
       <c r="T33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!T16:T30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="U33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!U16:U30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="V33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!V16:V30,-1))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="W33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!W5:W30,-1))</f>
-        <v>6530</v>
+        <v>4110</v>
       </c>
       <c r="X33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!X5:X30,-1))</f>
-        <v>6530</v>
+        <v>4110</v>
       </c>
       <c r="Y33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!Y5:Y30,-1))</f>
-        <v>6530</v>
+        <v>4110</v>
       </c>
       <c r="Z33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!Z16:Z30,-1))</f>
-        <v>6530</v>
-      </c>
-      <c r="AA33">
+        <v>4110</v>
+      </c>
+      <c r="AA33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AA5:AA28,1))</f>
-        <v>6530</v>
-      </c>
-      <c r="AB33">
+        <v>#N/A</v>
+      </c>
+      <c r="AB33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AB5:AB28,1))</f>
-        <v>6530</v>
-      </c>
-      <c r="AC33">
+        <v>#N/A</v>
+      </c>
+      <c r="AC33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AC5:AC28,1))</f>
-        <v>6530</v>
-      </c>
-      <c r="AD33">
+        <v>#N/A</v>
+      </c>
+      <c r="AD33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AD5:AD28,1))</f>
-        <v>10380</v>
-      </c>
-      <c r="AE33">
+        <v>#N/A</v>
+      </c>
+      <c r="AE33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AE5:AE28,1))</f>
-        <v>10380</v>
-      </c>
-      <c r="AF33">
+        <v>#N/A</v>
+      </c>
+      <c r="AF33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AF5:AF28,1))</f>
-        <v>10380</v>
-      </c>
-      <c r="AG33">
+        <v>#N/A</v>
+      </c>
+      <c r="AG33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AG5:AG28,1))</f>
-        <v>10380</v>
-      </c>
-      <c r="AH33">
+        <v>#N/A</v>
+      </c>
+      <c r="AH33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AH5:AH28,1))</f>
-        <v>10380</v>
-      </c>
-      <c r="AI33">
+        <v>#N/A</v>
+      </c>
+      <c r="AI33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AI5:AI28,1))</f>
-        <v>10380</v>
-      </c>
-      <c r="AJ33">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ33" t="e">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AJ5:AJ28,1))</f>
-        <v>16510</v>
+        <v>#N/A</v>
       </c>
       <c r="AK33" s="26"/>
       <c r="AO33" s="26"/>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="C36" s="40">
         <f>IF(UI!F5="A",UI!E5,UI!E5/(VLOOKUP(UI!E4,'wire calculator'!B1:C5,2,FALSE)*UI!E3))/UI!E13</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D36" s="73"/>
       <c r="R36" s="1"/>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="C37" s="69">
         <f>INDEX(G33:Z33,1,C23+SUM(C24:C27))</f>
-        <v>6530</v>
+        <v>4110</v>
       </c>
       <c r="D37" s="73"/>
       <c r="R37" s="1"/>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="C38" s="69">
         <f>INDEX(G33:Z33,1,C23+SUM(C28:C33))</f>
-        <v>4110</v>
+        <v>2580</v>
       </c>
       <c r="D38" s="73"/>
       <c r="R38" s="1"/>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="C40" s="70">
         <f>VLOOKUP(UI!E4,'wire calculator'!B1:C5,2,FALSE)</f>
-        <v>1</v>
+        <v>1.7320508075688772</v>
       </c>
       <c r="D40" s="73"/>
       <c r="R40" s="1"/>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="C41" s="68">
         <f>UI!E7</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D41" s="73"/>
       <c r="R41" s="1"/>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="C42" s="40">
         <f>UI!E6</f>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D42" s="73"/>
       <c r="R42" s="1"/>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="C43" s="34">
         <f>IF(C40=1,C42,0)</f>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D43" s="73"/>
       <c r="R43" s="1"/>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C47" s="34">
         <f>IF(UI!$E$11="PVC conduit",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="73"/>
       <c r="R47" s="1"/>
@@ -9505,7 +9505,7 @@
       </c>
       <c r="C49" s="34">
         <f>IF(UI!$E$11="steel conduit",3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49" s="73"/>
       <c r="R49" s="1"/>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="C53" s="64">
         <f>UI!E3</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D53" s="74"/>
       <c r="R53" s="1"/>
@@ -9616,9 +9616,9 @@
       <c r="B55" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="69">
+      <c r="C55" s="69" t="e">
         <f>IF(UI!$E$13&gt;1,MAX(C37,INDEX(AA33:AJ33,1,SUM(C24:C27)),'Trade Size'!B19),MAX(C37,INDEX(AA33:AJ33,1,SUM(C24:C27))))</f>
-        <v>10380</v>
+        <v>#N/A</v>
       </c>
       <c r="D55" s="73"/>
       <c r="R55" s="1"/>
@@ -9637,9 +9637,9 @@
       <c r="B56" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="69" t="e">
         <f>IF(UI!$E$13&gt;1,MAX(C38,INDEX(AA33:AJ33,1,SUM(C28:C33)),'Trade Size'!B19),MAX(C38,INDEX(AA33:AJ33,1,SUM(C28:C33))))</f>
-        <v>6530</v>
+        <v>#N/A</v>
       </c>
       <c r="D56" s="73"/>
       <c r="R56" s="1"/>
@@ -9674,9 +9674,9 @@
       <c r="B58" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="71">
+      <c r="C58" s="71" t="str">
         <f>UI!E26</f>
-        <v>1.9036052743169856</v>
+        <v/>
       </c>
       <c r="D58" s="73"/>
       <c r="R58" s="1"/>
@@ -9695,9 +9695,9 @@
       <c r="B59" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="71">
+      <c r="C59" s="71" t="str">
         <f>UI!E37</f>
-        <v>1.9058755341834133</v>
+        <v/>
       </c>
       <c r="D59" s="73"/>
       <c r="R59" s="1"/>
@@ -9732,9 +9732,9 @@
       <c r="B61" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="70">
+      <c r="C61" s="70" t="e">
         <f>C58*C53/(C40*C36*(C42+C43)*100)</f>
-        <v>1.8274610633443062E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D61" s="73"/>
       <c r="R61" s="1"/>
@@ -9753,9 +9753,9 @@
       <c r="B62" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="70">
+      <c r="C62" s="70" t="e">
         <f>C59*C53/(C40*C36*(C42+C43)*100)</f>
-        <v>1.8296405128160767E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D62" s="73"/>
       <c r="R62" s="1"/>
@@ -9790,9 +9790,9 @@
       <c r="B64" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="69">
+      <c r="C64" s="69" t="e">
         <f>C44*C53/(C40*C36*C61*100)-C43</f>
-        <v>137.65949498348613</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D64" s="73"/>
       <c r="R64" s="1"/>
@@ -9811,9 +9811,9 @@
       <c r="B65" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="69">
+      <c r="C65" s="69" t="e">
         <f>C44*C53/(C40*C36*C62*100)-C43</f>
-        <v>137.34661762119146</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D65" s="73"/>
       <c r="R65" s="1"/>
@@ -9848,9 +9848,9 @@
       <c r="B67" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="70">
+      <c r="C67" s="70" t="e">
         <f>C55/(C37)</f>
-        <v>1.5895865237366003</v>
+        <v>#N/A</v>
       </c>
       <c r="D67" s="73"/>
       <c r="R67" s="1"/>
@@ -9869,9 +9869,9 @@
       <c r="B68" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="70">
+      <c r="C68" s="70" t="e">
         <f>C56/(C38)</f>
-        <v>1.5888077858880778</v>
+        <v>#N/A</v>
       </c>
       <c r="D68" s="73"/>
       <c r="R68" s="1"/>
@@ -9906,9 +9906,9 @@
       <c r="B70" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="34">
+      <c r="C70" s="34" t="e">
         <f>UI!$E$13*'wire calculator'!$C$36*'wire calculator'!C67</f>
-        <v>7.9479326186830015</v>
+        <v>#N/A</v>
       </c>
       <c r="D70" s="73"/>
       <c r="R70" s="1"/>
@@ -9927,9 +9927,9 @@
       <c r="B71" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="34">
+      <c r="C71" s="34" t="e">
         <f>UI!$E$13*'wire calculator'!$C$36*'wire calculator'!C68</f>
-        <v>7.9440389294403886</v>
+        <v>#N/A</v>
       </c>
       <c r="D71" s="73"/>
       <c r="R71" s="1"/>
@@ -9964,9 +9964,9 @@
       <c r="B73" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="34">
+      <c r="C73" s="34" t="e">
         <f>INDEX('250.122'!C1:C21,MATCH('wire calculator'!C70,'250.122'!A1:A21,-1))</f>
-        <v>12</v>
+        <v>#N/A</v>
       </c>
       <c r="D73" s="73"/>
     </row>
@@ -9975,9 +9975,9 @@
       <c r="B74" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="34">
+      <c r="C74" s="34" t="e">
         <f>INDEX('250.122'!B1:B21,MATCH('wire calculator'!C71,'250.122'!A1:A21,-1))</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="D74" s="73"/>
     </row>
@@ -9992,9 +9992,9 @@
       <c r="B76" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="35" t="str">
         <f>IF(ISNA(INDEX('250.66'!F1:F7,MATCH(UI!E13*C55,'250.66'!E1:E7,-1))),"250",INDEX('250.66'!F1:F7,MATCH(UI!E13*C55,'250.66'!E1:E7,-1)))</f>
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="D76" s="73"/>
     </row>
@@ -10003,9 +10003,9 @@
       <c r="B77" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="35" t="str">
         <f>IF(ISNA(INDEX('250.66'!F1:F7,MATCH(UI!E13*C56,'250.66'!E1:E7,-1))),"3/0",INDEX('250.66'!F1:F7,MATCH(UI!E13*C56,'250.66'!E1:E7,-1)))</f>
-        <v>6</v>
+        <v>3/0</v>
       </c>
       <c r="D77" s="73"/>
     </row>
@@ -10020,9 +10020,9 @@
       <c r="B79" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="35" t="e">
         <f>IF(ISNA(INDEX('250.102(C)(1)'!F1:F7,MATCH('wire calculator'!C55,'250.102(C)(1)'!E1:E7,-1))),INDEX('Trade Size'!A1:A30,MATCH('wire calculator'!C55*0.125,'Trade Size'!B1:B30,-1)),INDEX('250.102(C)(1)'!F1:F7,MATCH('wire calculator'!C55,'250.102(C)(1)'!E1:E7,-1)))</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="D79" s="73"/>
     </row>
@@ -10031,9 +10031,9 @@
       <c r="B80" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="35" t="e">
         <f>IF(ISNA(INDEX('250.102(C)(1)'!C1:C7,MATCH('wire calculator'!C56,'250.102(C)(1)'!B1:B7,-1))),INDEX('Trade Size'!A1:A30,MATCH('wire calculator'!C56*0.125,'Trade Size'!B1:B30,-1)),INDEX('250.102(C)(1)'!C1:C7,MATCH('wire calculator'!C56,'250.102(C)(1)'!B1:B7,-1)))</f>
-        <v>8</v>
+        <v>#N/A</v>
       </c>
       <c r="D80" s="73"/>
     </row>

--- a/wireSize.xlsx
+++ b/wireSize.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\SkyDrive\Projects\wireCalculatorAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{9605868C-FC5D-4758-8C59-2876D8DBB6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3717801-DEAB-4BE1-A0FC-F7958E78689F}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{9605868C-FC5D-4758-8C59-2876D8DBB6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17CB4205-B09E-48B2-AA63-0C22609FAF7F}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LIohB+gbvy1ebnDYDEkw3sBqn5ATpkRnTBKSCLIwuwhY1dRk/ONOsqnkF15GQjFuMtxpDx3Xsy8MSH5DVYNTPA==" workbookSaltValue="oLGjJmtLY3te8hyT4f117A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="17505" yWindow="1020" windowWidth="17790" windowHeight="13665" tabRatio="746" xr2:uid="{BFDAD5A9-2052-4A8A-80AC-2EDD1E0046A8}"/>
+    <workbookView xWindow="7575" yWindow="0" windowWidth="19065" windowHeight="15600" tabRatio="746" xr2:uid="{BFDAD5A9-2052-4A8A-80AC-2EDD1E0046A8}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -819,19 +819,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:XFC44"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1802,7 @@
   <headerFooter>
     <oddHeader>&amp;LTodd Miller
 todd@designbuild.support
-661-588-7961
+661-558-7961
 &amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C2005 EYE Street, Suite 4 - #116, Bakersfield, CA 93301
 www.designbuild.support</oddFooter>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
-      <c r="D6" s="89"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="1">
         <f>'310.15(B)(16)'!A6</f>
         <v>900</v>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
-      <c r="D14" s="89"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="1">
         <f>'310.15(B)(16)'!A14</f>
         <v>300</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
-      <c r="D21" s="89"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="1">
         <f>'310.15(B)(16)'!A21</f>
         <v>2</v>
@@ -8908,30 +8908,30 @@
       <c r="N31" s="87"/>
       <c r="O31" s="87"/>
       <c r="P31" s="87"/>
-      <c r="Q31" s="88" t="s">
+      <c r="Q31" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88" t="s">
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="88"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="88"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="90"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B34" s="87"/>
       <c r="C34" s="87"/>
-      <c r="D34" s="89"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="Q34" s="37"/>
@@ -9197,14 +9197,14 @@
       <c r="Y34" s="33"/>
       <c r="Z34" s="37"/>
       <c r="AA34" s="37"/>
-      <c r="AB34" s="86"/>
-      <c r="AC34" s="86"/>
-      <c r="AD34" s="86"/>
-      <c r="AE34" s="86"/>
-      <c r="AF34" s="86"/>
-      <c r="AG34" s="86"/>
-      <c r="AH34" s="86"/>
-      <c r="AI34" s="86"/>
+      <c r="AB34" s="89"/>
+      <c r="AC34" s="89"/>
+      <c r="AD34" s="89"/>
+      <c r="AE34" s="89"/>
+      <c r="AF34" s="89"/>
+      <c r="AG34" s="89"/>
+      <c r="AH34" s="89"/>
+      <c r="AI34" s="89"/>
       <c r="AJ34" s="37"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B51" s="87"/>
       <c r="C51" s="87"/>
-      <c r="D51" s="89"/>
+      <c r="D51" s="88"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -10044,25 +10044,25 @@
       <c r="D81" s="75"/>
     </row>
     <row r="82" spans="1:4" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="90" t="s">
+      <c r="A82" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="90"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB34:AI34"/>
+    <mergeCell ref="G31:P31"/>
+    <mergeCell ref="Q31:Z31"/>
+    <mergeCell ref="AA31:AJ31"/>
+    <mergeCell ref="A51:D51"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="AB34:AI34"/>
-    <mergeCell ref="G31:P31"/>
-    <mergeCell ref="Q31:Z31"/>
-    <mergeCell ref="AA31:AJ31"/>
-    <mergeCell ref="A51:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12909,18 +12909,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13056,6 +13056,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E70BDA-1694-4538-883A-8F7ADDA7AE1A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93FD4F64-C424-43E1-843A-D6848410973D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -13067,14 +13075,6 @@
     <ds:schemaRef ds:uri="04ff1922-4745-4e8b-906a-c3fdbfbf89b5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E70BDA-1694-4538-883A-8F7ADDA7AE1A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/wireSize.xlsx
+++ b/wireSize.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Projects\wireCalculatorAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbb916d8bd528a6/Projects/wireCalculatorAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{9605868C-FC5D-4758-8C59-2876D8DBB6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E3A58F0-CDA0-4A1B-8265-DEF99B19684D}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="8_{9605868C-FC5D-4758-8C59-2876D8DBB6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EA25264-597C-4278-B97D-4E46792A5401}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="KW6H2vPv6KJWNSACT0qOCFyT/biPO/u1qGilu7NU7805tM9xeZNThy/lefsXWKY7zL84gohJbt3+HpZIcBRvTQ==" workbookSaltValue="UGfW5jXc6Bjh1Qh8H7l9JQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" xr2:uid="{BFDAD5A9-2052-4A8A-80AC-2EDD1E0046A8}"/>
+    <workbookView xWindow="11880" yWindow="885" windowWidth="21150" windowHeight="19980" tabRatio="746" xr2:uid="{BFDAD5A9-2052-4A8A-80AC-2EDD1E0046A8}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">UI!$A$1:$G$40</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -173,9 +176,6 @@
   </si>
   <si>
     <t>Cu75</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Cu</t>
@@ -427,7 +427,10 @@
     <t>Wire Calculator for Polyphase AC Circuits</t>
   </si>
   <si>
-    <t xml:space="preserve"> Not for AC circuits greater than 2,000V. This calculator does not cover every AC circuit situation. See NEC articles 250 &amp; 310. By using this calculator you agree use it at your own risk. DO NOT PRINT WITHOUT PERMISSION.</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not for AC circuits greater than 2,000V. This calculator does not size wire based on the greater of 125%FLA and voltage drop - just voltage drop and NEC deratings. By using this calculator you agree use it at your own risk.</t>
   </si>
 </sst>
 </file>
@@ -780,6 +783,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,6 +841,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,54 +882,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -1198,10 +1201,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFC74"/>
+  <dimension ref="A1:XFC44"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1217,15 +1220,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="A1" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
@@ -1244,7 +1247,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="8">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>2</v>
@@ -1272,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>3</v>
@@ -1287,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>1</v>
@@ -1302,7 +1305,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="12">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="9"/>
@@ -1336,13 +1339,13 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -1351,7 +1354,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>77</v>
@@ -1373,7 +1376,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -1402,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
@@ -1423,10 +1426,10 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
@@ -1441,165 +1444,165 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="85"/>
+      <c r="B19" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="105"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="91">
+      <c r="A20" s="85"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="73">
         <f>IFERROR('wire calculator'!C36,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="86"/>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="90" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="94" t="str">
+      <c r="E21" s="76">
         <f>IFERROR(IF(AND(E17="yes",'wire calculator'!C55='Trade Size'!$B$22),'Trade Size'!$B$21,'wire calculator'!C55),"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="93" t="s">
+        <v>250000</v>
+      </c>
+      <c r="F21" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="105"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="90" t="s">
+      <c r="A22" s="85"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="90" t="str">
+      <c r="E22" s="72">
         <f>IFERROR(INDEX('Trade Size'!A1:A30,MATCH(UI!E21,'Trade Size'!B1:B30,0)),"out of range")</f>
-        <v>out of range</v>
-      </c>
-      <c r="F22" s="93" t="str">
+        <v>250</v>
+      </c>
+      <c r="F22" s="75" t="str">
         <f>IF(COUNTIF('Trade Size'!$A$16:$A$30,UI!E22),"AWG","MCM")</f>
         <v>MCM</v>
       </c>
-      <c r="G22" s="105"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="90" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="90" t="str">
+      <c r="E23" s="72">
         <f>IFERROR(IF(AND(UI!E17="yes",'wire calculator'!C73=3),2,'wire calculator'!C73),"out of range")</f>
-        <v>out of range</v>
-      </c>
-      <c r="F23" s="93" t="str">
+        <v>4</v>
+      </c>
+      <c r="F23" s="75" t="str">
         <f>IF(COUNTIF('Trade Size'!$A$16:$A$30,UI!E23),"AWG","MCM")</f>
-        <v>MCM</v>
-      </c>
-      <c r="G23" s="105"/>
+        <v>AWG</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="90" t="str">
+      <c r="A24" s="85"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="72">
         <f>IFERROR(IF(AND(UI!E17="yes",'wire calculator'!C79=3),2,'wire calculator'!C79),"out of range")</f>
-        <v>out of range</v>
-      </c>
-      <c r="F24" s="93" t="str">
+        <v>2</v>
+      </c>
+      <c r="F24" s="75" t="str">
         <f>IF(COUNTIF('Trade Size'!$A$16:$A$30,UI!E24),"AWG","MCM")</f>
-        <v>MCM</v>
-      </c>
-      <c r="G24" s="105"/>
+        <v>AWG</v>
+      </c>
+      <c r="G24" s="86"/>
       <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="90" t="s">
+      <c r="A25" s="85"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="90" t="str">
+      <c r="E25" s="72">
         <f>IFERROR(IF(AND(E17="yes",'wire calculator'!C76=3),2,'wire calculator'!C76),"out of range")</f>
-        <v>out of range</v>
-      </c>
-      <c r="F25" s="93" t="str">
+        <v>2</v>
+      </c>
+      <c r="F25" s="75" t="str">
         <f>IF(COUNTIF('Trade Size'!$A$16:$A$30,UI!E25),"AWG","MCM")</f>
-        <v>MCM</v>
-      </c>
-      <c r="G25" s="105"/>
+        <v>AWG</v>
+      </c>
+      <c r="G25" s="86"/>
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="90" t="s">
+      <c r="A26" s="85"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="95" t="str">
+      <c r="E26" s="77">
         <f>IFERROR(VLOOKUP(UI!E21,'wire calculator'!F1:AJ30,(1+20+SUM('wire calculator'!C24:C27)),FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F26" s="93" t="s">
+        <v>1.665433468816228</v>
+      </c>
+      <c r="F26" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="105"/>
+      <c r="G26" s="86"/>
     </row>
     <row r="27" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="90" t="s">
+      <c r="A27" s="85"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="91" t="str">
+      <c r="E27" s="73">
         <f>IFERROR(E3-(E3*E26/100),"")</f>
-        <v/>
-      </c>
-      <c r="F27" s="93" t="s">
+        <v>204.53589838486224</v>
+      </c>
+      <c r="F27" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="105"/>
+      <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="91" t="str">
+      <c r="A28" s="85"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="73">
         <f>IFERROR('wire calculator'!C64,"")</f>
-        <v/>
-      </c>
-      <c r="F28" s="93" t="s">
+        <v>180.13328398716325</v>
+      </c>
+      <c r="F28" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="105"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
@@ -1611,7 +1614,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="96" t="s">
         <v>30</v>
       </c>
@@ -1619,155 +1622,155 @@
       <c r="D30" s="96"/>
       <c r="E30" s="96"/>
       <c r="F30" s="96"/>
-      <c r="G30" s="107"/>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="99">
+      <c r="A31" s="87"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="80">
         <f>IFERROR('wire calculator'!C36,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="107"/>
+      <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="101" t="str">
+      <c r="E32" s="82">
         <f>IFERROR(IF(AND(E17="yes",'wire calculator'!C56='Trade Size'!$B$22),'Trade Size'!$B$21,'wire calculator'!C56),"")</f>
-        <v/>
-      </c>
-      <c r="F32" s="97" t="s">
+        <v>167800</v>
+      </c>
+      <c r="F32" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="107"/>
+      <c r="G32" s="88"/>
     </row>
     <row r="33" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="98" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="98" t="str">
+      <c r="E33" s="79" t="str">
         <f>IFERROR(INDEX('Trade Size'!A1:A30,MATCH(UI!E32,'Trade Size'!B1:B30,0)),"out of range")</f>
-        <v>out of range</v>
-      </c>
-      <c r="F33" s="97" t="str">
+        <v>3/0</v>
+      </c>
+      <c r="F33" s="78" t="str">
         <f>IF(COUNTIF('Trade Size'!$A$16:$A$30,UI!E33),"AWG","MCM")</f>
-        <v>MCM</v>
-      </c>
-      <c r="G33" s="107"/>
+        <v>AWG</v>
+      </c>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98" t="s">
+      <c r="A34" s="87"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="102" t="str">
+      <c r="E34" s="83">
         <f>IFERROR(IF(AND(UI!E17="yes",'wire calculator'!C74=3),2,'wire calculator'!C74),"out of range")</f>
-        <v>out of range</v>
-      </c>
-      <c r="F34" s="97" t="str">
+        <v>6</v>
+      </c>
+      <c r="F34" s="78" t="str">
         <f>IF(COUNTIF('Trade Size'!$A$16:$A$30,UI!E34),"AWG","MCM")</f>
-        <v>MCM</v>
-      </c>
-      <c r="G34" s="107"/>
+        <v>AWG</v>
+      </c>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="102" t="str">
+      <c r="A35" s="87"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="83">
         <f>IFERROR(IF(AND(UI!E17="yes",'wire calculator'!C80=3),2,'wire calculator'!C80),"out of range")</f>
-        <v>out of range</v>
-      </c>
-      <c r="F35" s="97" t="str">
+        <v>4</v>
+      </c>
+      <c r="F35" s="78" t="str">
         <f>IF(COUNTIF('Trade Size'!$A$16:$A$30,UI!E35),"AWG","MCM")</f>
-        <v>MCM</v>
-      </c>
-      <c r="G35" s="107"/>
+        <v>AWG</v>
+      </c>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="98" t="str">
+      <c r="E36" s="79">
         <f>IFERROR(IF(AND(E17="yes",'wire calculator'!C77=3),2,'wire calculator'!C77),"out of range")</f>
-        <v>out of range</v>
-      </c>
-      <c r="F36" s="97" t="str">
+        <v>4</v>
+      </c>
+      <c r="F36" s="78" t="str">
         <f>IF(COUNTIF('Trade Size'!$A$16:$A$30,UI!E36),"AWG","MCM")</f>
-        <v>MCM</v>
-      </c>
-      <c r="G36" s="107"/>
+        <v>AWG</v>
+      </c>
+      <c r="G36" s="88"/>
     </row>
     <row r="37" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="98" t="s">
+      <c r="A37" s="87"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="103" t="str">
+      <c r="E37" s="84">
         <f>IFERROR(VLOOKUP(UI!E32,'wire calculator'!F1:AJ30,(1+20+SUM('wire calculator'!C28:C33)),FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F37" s="97" t="s">
+        <v>1.5721691945625196</v>
+      </c>
+      <c r="F37" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="107"/>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="98" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="99" t="str">
+      <c r="E38" s="80">
         <f>IFERROR(E3-(E3*E37/100),"")</f>
-        <v/>
-      </c>
-      <c r="F38" s="97" t="s">
+        <v>204.72988807530996</v>
+      </c>
+      <c r="F38" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="107"/>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="99" t="str">
+      <c r="A39" s="87"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="80">
         <f>IFERROR('wire calculator'!C65,"")</f>
-        <v/>
-      </c>
-      <c r="F39" s="97" t="s">
+        <v>190.81915676606272</v>
+      </c>
+      <c r="F39" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="107"/>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
@@ -1779,77 +1782,47 @@
       <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="91"/>
     </row>
     <row r="42" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="91"/>
     </row>
     <row r="43" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="71"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="91"/>
     </row>
     <row r="44" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="79"/>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="99"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i6JuTvT3bDmoY8dYiMnC0q4buqNY2IOQN+8G5828FdBWZ+CekAt6dMXeioFvJlJ6Cu1ed3Ed8mR60MamGDleHA==" saltValue="6yTwyI+u7L+iXXaW8w3K2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W4JFrUcOpl6WhA0pxWsYCqYEAuKVZ633iogtYxvjVMLBB6ZT96f604+5Ir4FhbQo5BuvQcyQIpT9/xBbfQGSgA==" saltValue="HSeyeG2HT/BRK9YfkPpnRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A1" name="Header"/>
     <protectedRange sqref="E3:E7 F5 E9:E11 E13:E15 E17" name="inputs"/>
@@ -1876,14 +1849,6 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;LTodd Miller
-todd@designbuild.support
-661-558-7961
-&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;C2005 EYE Street, Suite 4 - #116, Bakersfield, CA 93301
-www.designbuild.support</oddFooter>
-  </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2583,21 +2548,21 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="81"/>
+      <c r="A31" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="101"/>
       <c r="C31" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="E31" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="F31" s="29" t="s">
         <v>53</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3279,21 +3244,21 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="81"/>
+      <c r="A31" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="101"/>
       <c r="C31" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="E31" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="F31" s="29" t="s">
         <v>53</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3795,15 +3760,15 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="81"/>
+      <c r="A31" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="101"/>
       <c r="C31" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4756,50 +4721,50 @@
       <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="81"/>
+      <c r="A31" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="101"/>
       <c r="C31" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="E31" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="F31" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="87" t="s">
+      <c r="D32" s="107"/>
+      <c r="E32" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87" t="s">
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
@@ -4926,45 +4891,45 @@
         <f>'310.15(B)(19)'!F1*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA1" s="3" t="e">
+      <c r="AA1" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB1" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC1" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD1" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE1" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF1" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E1:$G1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG1" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H1:$J1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH1" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H1:$J1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI1" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H1:$J1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ1" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H1:$J1,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D1*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C1*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -5065,45 +5030,45 @@
         <f>'310.15(B)(19)'!F2*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="3" t="e">
+      <c r="AA2" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB2" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC2" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD2" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE2" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF2" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E2:$G2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG2" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H2:$J2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH2" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H2:$J2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI2" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H2:$J2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ2" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H2:$J2,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D2*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C2*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -5203,45 +5168,45 @@
         <f>'310.15(B)(19)'!F3*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="3" t="e">
+      <c r="AA3" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB3" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC3" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD3" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE3" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF3" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E3:$G3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG3" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H3:$J3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH3" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H3:$J3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI3" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H3:$J3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ3" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H3:$J3,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D3*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C3*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -5341,45 +5306,45 @@
         <f>'310.15(B)(19)'!F4*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="3" t="e">
+      <c r="AA4" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB4" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC4" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD4" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE4" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF4" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E4:$G4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG4" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H4:$J4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH4" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H4:$J4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI4" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H4:$J4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ4" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H4:$J4,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D4*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C4*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -5480,54 +5445,54 @@
         <f>'310.15(B)(19)'!F5*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="3" t="e">
+      <c r="AA5" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB5" s="26" t="e">
+        <v>0.68786266067757862</v>
+      </c>
+      <c r="AB5" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC5" s="26" t="e">
+        <v>0.69948205690281584</v>
+      </c>
+      <c r="AC5" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD5" s="26" t="e">
+        <v>0.71110145312805284</v>
+      </c>
+      <c r="AD5" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE5" s="26" t="e">
+        <v>0.75757903802900117</v>
+      </c>
+      <c r="AE5" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF5" s="26" t="e">
+        <v>0.79631035877979117</v>
+      </c>
+      <c r="AF5" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E5:$G5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG5" s="3" t="e">
+        <v>0.83504167953058128</v>
+      </c>
+      <c r="AG5" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H5:$J5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH5" s="3" t="e">
+        <v>0.77625853981524384</v>
+      </c>
+      <c r="AH5" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H5:$J5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI5" s="3" t="e">
+        <v>0.7927463311565246</v>
+      </c>
+      <c r="AI5" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H5:$J5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ5" s="43" t="e">
+        <v>0.80923412249780513</v>
+      </c>
+      <c r="AJ5" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H5:$J5,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D5*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C5*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0.87518528786292782</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="83"/>
+      <c r="A6" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="1">
         <f>'310.15(B)(16)'!A6</f>
         <v>900</v>
@@ -5616,45 +5581,45 @@
         <f>'310.15(B)(19)'!F6*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="3" t="e">
+      <c r="AA6" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB6" s="26" t="e">
+        <v>0.74588169951742345</v>
+      </c>
+      <c r="AB6" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC6" s="26" t="e">
+        <v>0.75943766178020011</v>
+      </c>
+      <c r="AC6" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD6" s="26" t="e">
+        <v>0.77299362404297678</v>
+      </c>
+      <c r="AD6" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE6" s="26" t="e">
+        <v>0.82721747309408278</v>
+      </c>
+      <c r="AE6" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF6" s="26" t="e">
+        <v>0.87240401397000467</v>
+      </c>
+      <c r="AF6" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E6:$G6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG6" s="3" t="e">
+        <v>0.91759055484592655</v>
+      </c>
+      <c r="AG6" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H6:$J6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH6" s="3" t="e">
+        <v>0.87222747802231027</v>
+      </c>
+      <c r="AH6" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H6:$J6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI6" s="3" t="e">
+        <v>0.89267233928549827</v>
+      </c>
+      <c r="AI6" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H6:$J6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ6" s="43" t="e">
+        <v>0.91311720054868639</v>
+      </c>
+      <c r="AJ6" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H6:$J6,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D6*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C6*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0.9948966456014382</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -5750,51 +5715,51 @@
         <f>'310.15(B)(19)'!F7*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="3" t="e">
+      <c r="AA7" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB7" s="26" t="e">
+        <v>0.74588169951742345</v>
+      </c>
+      <c r="AB7" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC7" s="26" t="e">
+        <v>0.75943766178020011</v>
+      </c>
+      <c r="AC7" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD7" s="26" t="e">
+        <v>0.77299362404297678</v>
+      </c>
+      <c r="AD7" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE7" s="26" t="e">
+        <v>0.82721747309408278</v>
+      </c>
+      <c r="AE7" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF7" s="26" t="e">
+        <v>0.87240401397000467</v>
+      </c>
+      <c r="AF7" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E7:$G7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG7" s="3" t="e">
+        <v>0.91759055484592655</v>
+      </c>
+      <c r="AG7" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H7:$J7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH7" s="3" t="e">
+        <v>0.87222747802231027</v>
+      </c>
+      <c r="AH7" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H7:$J7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI7" s="3" t="e">
+        <v>0.89267233928549827</v>
+      </c>
+      <c r="AI7" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H7:$J7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ7" s="43" t="e">
+        <v>0.91311720054868639</v>
+      </c>
+      <c r="AJ7" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H7:$J7,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D7*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C7*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0.9948966456014382</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="31">
         <v>60</v>
@@ -5888,51 +5853,51 @@
         <f>'310.15(B)(19)'!F8*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="3" t="e">
+      <c r="AA8" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB8" s="26" t="e">
+        <v>0.74588169951742345</v>
+      </c>
+      <c r="AB8" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC8" s="26" t="e">
+        <v>0.75943766178020011</v>
+      </c>
+      <c r="AC8" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD8" s="26" t="e">
+        <v>0.77299362404297678</v>
+      </c>
+      <c r="AD8" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE8" s="26" t="e">
+        <v>0.82721747309408278</v>
+      </c>
+      <c r="AE8" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF8" s="26" t="e">
+        <v>0.87240401397000467</v>
+      </c>
+      <c r="AF8" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E8:$G8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG8" s="3" t="e">
+        <v>0.91759055484592655</v>
+      </c>
+      <c r="AG8" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H8:$J8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH8" s="3" t="e">
+        <v>0.87222747802231027</v>
+      </c>
+      <c r="AH8" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H8:$J8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI8" s="3" t="e">
+        <v>0.89267233928549827</v>
+      </c>
+      <c r="AI8" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H8:$J8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ8" s="43" t="e">
+        <v>0.91311720054868639</v>
+      </c>
+      <c r="AJ8" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H8:$J8,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D8*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C8*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0.9948966456014382</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="31">
         <v>75</v>
@@ -6026,51 +5991,51 @@
         <f>'310.15(B)(19)'!F9*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="3" t="e">
+      <c r="AA9" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB9" s="26" t="e">
+        <v>0.79659348246948991</v>
+      </c>
+      <c r="AB9" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC9" s="26" t="e">
+        <v>0.81273153278231935</v>
+      </c>
+      <c r="AC9" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD9" s="26" t="e">
+        <v>0.82886958309514858</v>
+      </c>
+      <c r="AD9" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE9" s="26" t="e">
+        <v>0.89342178434646569</v>
+      </c>
+      <c r="AE9" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF9" s="26" t="e">
+        <v>0.94721528538922961</v>
+      </c>
+      <c r="AF9" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E9:$G9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG9" s="3" t="e">
+        <v>1.0010087864319936</v>
+      </c>
+      <c r="AG9" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H9:$J9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH9" s="3" t="e">
+        <v>0.96087517070046047</v>
+      </c>
+      <c r="AH9" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H9:$J9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI9" s="3" t="e">
+        <v>0.98593661353920692</v>
+      </c>
+      <c r="AI9" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H9:$J9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ9" s="43" t="e">
+        <v>1.0109980563779537</v>
+      </c>
+      <c r="AJ9" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H9:$J9,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D9*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C9*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>1.1112438277329402</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="31">
         <v>90</v>
@@ -6164,51 +6129,51 @@
         <f>'310.15(B)(19)'!F10*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="3" t="e">
+      <c r="AA10" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10" s="26" t="e">
+        <v>0.79659348246948991</v>
+      </c>
+      <c r="AB10" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC10" s="26" t="e">
+        <v>0.81273153278231935</v>
+      </c>
+      <c r="AC10" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD10" s="26" t="e">
+        <v>0.82886958309514858</v>
+      </c>
+      <c r="AD10" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE10" s="26" t="e">
+        <v>0.89342178434646569</v>
+      </c>
+      <c r="AE10" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF10" s="26" t="e">
+        <v>0.94721528538922961</v>
+      </c>
+      <c r="AF10" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E10:$G10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG10" s="3" t="e">
+        <v>1.0010087864319936</v>
+      </c>
+      <c r="AG10" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H10:$J10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH10" s="3" t="e">
+        <v>0.96087517070046047</v>
+      </c>
+      <c r="AH10" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H10:$J10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI10" s="3" t="e">
+        <v>0.98593661353920692</v>
+      </c>
+      <c r="AI10" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H10:$J10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ10" s="43" t="e">
+        <v>1.0109980563779537</v>
+      </c>
+      <c r="AJ10" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H10:$J10,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D10*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C10*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>1.1112438277329402</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="31">
         <v>150</v>
@@ -6302,51 +6267,51 @@
         <f>'310.15(B)(19)'!F11*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="3" t="e">
+      <c r="AA11" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB11" s="26" t="e">
+        <v>0.8473052654215566</v>
+      </c>
+      <c r="AB11" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC11" s="26" t="e">
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="AC11" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD11" s="26" t="e">
+        <v>0.88474554214732049</v>
+      </c>
+      <c r="AD11" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE11" s="26" t="e">
+        <v>0.95962609559884826</v>
+      </c>
+      <c r="AE11" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF11" s="26" t="e">
+        <v>1.0220265568084548</v>
+      </c>
+      <c r="AF11" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E11:$G11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG11" s="3" t="e">
+        <v>1.0844270180180613</v>
+      </c>
+      <c r="AG11" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H11:$J11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH11" s="3" t="e">
+        <v>1.0495228633786104</v>
+      </c>
+      <c r="AH11" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H11:$J11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI11" s="3" t="e">
+        <v>1.0792008877929158</v>
+      </c>
+      <c r="AI11" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H11:$J11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ11" s="43" t="e">
+        <v>1.1088789122072209</v>
+      </c>
+      <c r="AJ11" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H11:$J11,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D11*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C11*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>1.2275910098644418</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="31">
         <v>200</v>
@@ -6440,51 +6405,51 @@
         <f>'310.15(B)(19)'!F12*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="3" t="e">
+      <c r="AA12" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB12" s="26" t="e">
+        <v>0.93336554066255384</v>
+      </c>
+      <c r="AB12" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC12" s="26" t="e">
+        <v>0.95595881110051495</v>
+      </c>
+      <c r="AC12" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="26" t="e">
+        <v>0.97855208153847606</v>
+      </c>
+      <c r="AD12" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="26" t="e">
+        <v>1.0689251632903196</v>
+      </c>
+      <c r="AE12" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF12" s="26" t="e">
+        <v>1.1442360647501895</v>
+      </c>
+      <c r="AF12" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E12:$G12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG12" s="3" t="e">
+        <v>1.2195469662100593</v>
+      </c>
+      <c r="AG12" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H12:$J12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="3" t="e">
+        <v>1.1861550251602939</v>
+      </c>
+      <c r="AH12" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H12:$J12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="3" t="e">
+        <v>1.2224281661111114</v>
+      </c>
+      <c r="AI12" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H12:$J12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="43" t="e">
+        <v>1.2587013070619293</v>
+      </c>
+      <c r="AJ12" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H12:$J12,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D12*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C12*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>1.4037938708651987</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="31">
         <v>250</v>
@@ -6578,54 +6543,54 @@
         <f>'310.15(B)(19)'!F13*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="3" t="e">
+      <c r="AA13" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB13" s="26" t="e">
+        <v>0.99406992442751785</v>
+      </c>
+      <c r="AB13" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC13" s="26" t="e">
+        <v>1.0192452829155316</v>
+      </c>
+      <c r="AC13" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="26" t="e">
+        <v>1.0444206414035453</v>
+      </c>
+      <c r="AD13" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="26" t="e">
+        <v>1.1451220753556</v>
+      </c>
+      <c r="AE13" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF13" s="26" t="e">
+        <v>1.2290399369823117</v>
+      </c>
+      <c r="AF13" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E13:$G13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG13" s="3" t="e">
+        <v>1.312957798609024</v>
+      </c>
+      <c r="AG13" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H13:$J13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="3" t="e">
+        <v>1.2974592747482203</v>
+      </c>
+      <c r="AH13" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H13:$J13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="3" t="e">
+        <v>1.3390085089282475</v>
+      </c>
+      <c r="AI13" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H13:$J13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="43" t="e">
+        <v>1.3805577431082747</v>
+      </c>
+      <c r="AJ13" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H13:$J13,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D13*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C13*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>1.5467546798283838</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="83"/>
+      <c r="A14" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="1">
         <f>'310.15(B)(16)'!A14</f>
         <v>300</v>
@@ -6714,45 +6679,45 @@
         <f>'310.15(B)(19)'!F14*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="e">
+      <c r="AA14" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB14" s="26" t="e">
+        <v>1.0801301996685151</v>
+      </c>
+      <c r="AB14" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="26" t="e">
+        <v>1.1091786902316079</v>
+      </c>
+      <c r="AC14" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="26" t="e">
+        <v>1.1382271807947004</v>
+      </c>
+      <c r="AD14" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="26" t="e">
+        <v>1.2544211430470713</v>
+      </c>
+      <c r="AE14" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF14" s="26" t="e">
+        <v>1.3512494449240464</v>
+      </c>
+      <c r="AF14" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E14:$G14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG14" s="3" t="e">
+        <v>1.4480777468010222</v>
+      </c>
+      <c r="AG14" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H14:$J14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="3" t="e">
+        <v>1.4214274804330247</v>
+      </c>
+      <c r="AH14" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H14:$J14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="3" t="e">
+        <v>1.4689123194959131</v>
+      </c>
+      <c r="AI14" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H14:$J14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="43" t="e">
+        <v>1.5163971585588014</v>
+      </c>
+      <c r="AJ14" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H14:$J14,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D14*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C14*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>1.7063365148103546</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -6848,51 +6813,51 @@
         <f>'310.15(B)(19)'!F15*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="3" t="e">
+      <c r="AA15" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB15" s="26" t="e">
+        <v>1.2042243121235623</v>
+      </c>
+      <c r="AB15" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC15" s="26" t="e">
+        <v>1.2390825007992736</v>
+      </c>
+      <c r="AC15" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD15" s="26" t="e">
+        <v>1.273940689474985</v>
+      </c>
+      <c r="AD15" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE15" s="26" t="e">
+        <v>1.4133734441778296</v>
+      </c>
+      <c r="AE15" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF15" s="26" t="e">
+        <v>1.5295674064302005</v>
+      </c>
+      <c r="AF15" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E15:$G15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG15" s="3" t="e">
+        <v>1.6457613686825707</v>
+      </c>
+      <c r="AG15" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H15:$J15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH15" s="3" t="e">
+        <v>1.6087154666022225</v>
+      </c>
+      <c r="AH15" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H15:$J15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI15" s="3" t="e">
+        <v>1.665433468816228</v>
+      </c>
+      <c r="AI15" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H15:$J15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ15" s="43" t="e">
+        <v>1.7221514710302339</v>
+      </c>
+      <c r="AJ15" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H15:$J15,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D15*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C15*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>1.9490234798862554</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="32">
         <f>VLOOKUP(UI!$E$10,'wire calculator'!$B$8:$C$13,2,FALSE)</f>
@@ -6987,45 +6952,45 @@
         <f>'310.15(B)(19)'!F16*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>466.03019522037715</v>
       </c>
-      <c r="AA16" s="3" t="e">
+      <c r="AA16" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB16" s="26" t="e">
+        <v>1.3083332229528151</v>
+      </c>
+      <c r="AB16" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC16" s="26" t="e">
+        <v>1.3490011097411447</v>
+      </c>
+      <c r="AC16" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD16" s="26" t="e">
+        <v>1.3896689965294744</v>
+      </c>
+      <c r="AD16" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="26" t="e">
+        <v>1.5523405436827935</v>
+      </c>
+      <c r="AE16" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF16" s="26" t="e">
+        <v>1.6879001663105586</v>
+      </c>
+      <c r="AF16" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E16:$G16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG16" s="3" t="e">
+        <v>1.8234597889383244</v>
+      </c>
+      <c r="AG16" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H16:$J16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH16" s="3" t="e">
+        <v>1.7760182511456257</v>
+      </c>
+      <c r="AH16" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H16:$J16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI16" s="3" t="e">
+        <v>1.8419694165107485</v>
+      </c>
+      <c r="AI16" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H16:$J16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ16" s="43" t="e">
+        <v>1.9079205818758709</v>
+      </c>
+      <c r="AJ16" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H16:$J16,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D16*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C16*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>2.1717252433363616</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -7121,51 +7086,51 @@
         <f>'310.15(B)(19)'!F17*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>397.99659007871628</v>
       </c>
-      <c r="AA17" s="3" t="e">
+      <c r="AA17" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB17" s="26" t="e">
+        <v>1.5211729555739788</v>
+      </c>
+      <c r="AB17" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC17" s="26" t="e">
+        <v>1.5721691945625196</v>
+      </c>
+      <c r="AC17" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD17" s="26" t="e">
+        <v>1.6231654335510599</v>
+      </c>
+      <c r="AD17" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE17" s="26" t="e">
+        <v>1.8271503895052215</v>
+      </c>
+      <c r="AE17" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF17" s="26" t="e">
+        <v>1.9971378528003561</v>
+      </c>
+      <c r="AF17" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E17:$G17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG17" s="3" t="e">
+        <v>2.1671253160954906</v>
+      </c>
+      <c r="AG17" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H17:$J17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH17" s="3" t="e">
+        <v>2.165929534864881</v>
+      </c>
+      <c r="AH17" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H17:$J17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI17" s="3" t="e">
+        <v>2.2516660498395398</v>
+      </c>
+      <c r="AI17" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H17:$J17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ17" s="43" t="e">
+        <v>2.3374025648142003</v>
+      </c>
+      <c r="AJ17" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H17:$J17,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D17*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C17*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>2.6803486247128379</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="63">
         <f>SQRT((C16-((UI!$E$9-32)/1.8))/(C16-30))</f>
@@ -7260,51 +7225,51 @@
         <f>'310.15(B)(19)'!F18*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>345.8374928034429</v>
       </c>
-      <c r="AA18" s="3" t="e">
+      <c r="AA18" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB18" s="26" t="e">
+        <v>1.8073950176981235</v>
+      </c>
+      <c r="AB18" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC18" s="26" t="e">
+        <v>1.8719472189494404</v>
+      </c>
+      <c r="AC18" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD18" s="26" t="e">
+        <v>1.9364994202007577</v>
+      </c>
+      <c r="AD18" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE18" s="26" t="e">
+        <v>2.1947082252060257</v>
+      </c>
+      <c r="AE18" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF18" s="26" t="e">
+        <v>2.4098822293770819</v>
+      </c>
+      <c r="AF18" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E18:$G18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG18" s="3" t="e">
+        <v>2.6250562335481384</v>
+      </c>
+      <c r="AG18" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H18:$J18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH18" s="3" t="e">
+        <v>2.5658334193970331</v>
+      </c>
+      <c r="AH18" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H18:$J18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI18" s="3" t="e">
+        <v>2.6713552839812298</v>
+      </c>
+      <c r="AI18" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H18:$J18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ18" s="43" t="e">
+        <v>2.776877148565426</v>
+      </c>
+      <c r="AJ18" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H18:$J18,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D18*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C18*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>3.1989646069022108</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="63">
         <f>SQRT((C16-((UI!$E$9-32)/1.8))/(C16-40))</f>
@@ -7399,45 +7364,45 @@
         <f>'310.15(B)(19)'!F19*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>298.21396920428026</v>
       </c>
-      <c r="AA19" s="3" t="e">
+      <c r="AA19" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB19" s="26" t="e">
+        <v>2.0709465332713539</v>
+      </c>
+      <c r="AB19" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC19" s="26" t="e">
+        <v>2.1484091747729339</v>
+      </c>
+      <c r="AC19" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD19" s="26" t="e">
+        <v>2.2258718162745148</v>
+      </c>
+      <c r="AD19" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE19" s="26" t="e">
+        <v>2.5357223822808366</v>
+      </c>
+      <c r="AE19" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF19" s="26" t="e">
+        <v>2.7939311872861041</v>
+      </c>
+      <c r="AF19" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E19:$G19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG19" s="3" t="e">
+        <v>3.0521399922913717</v>
+      </c>
+      <c r="AG19" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H19:$J19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH19" s="3" t="e">
+        <v>3.0823842640850758</v>
+      </c>
+      <c r="AH19" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H19:$J19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI19" s="3" t="e">
+        <v>3.214286594815321</v>
+      </c>
+      <c r="AI19" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H19:$J19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ19" s="43" t="e">
+        <v>3.3461889255455661</v>
+      </c>
+      <c r="AJ19" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H19:$J19,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D19*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C19*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>3.8737982484665476</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -7538,54 +7503,54 @@
         <f>'310.15(B)(19)'!F20*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>258.52769953831142</v>
       </c>
-      <c r="AA20" s="3" t="e">
+      <c r="AA20" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB20" s="26" t="e">
+        <v>2.5980495644178148</v>
+      </c>
+      <c r="AB20" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC20" s="26" t="e">
+        <v>2.7013330864199223</v>
+      </c>
+      <c r="AC20" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD20" s="26" t="e">
+        <v>2.804616608422029</v>
+      </c>
+      <c r="AD20" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE20" s="26" t="e">
+        <v>3.2177506964304592</v>
+      </c>
+      <c r="AE20" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF20" s="26" t="e">
+        <v>3.5620291031041491</v>
+      </c>
+      <c r="AF20" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E20:$G20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG20" s="3" t="e">
+        <v>3.906307509777839</v>
+      </c>
+      <c r="AG20" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H20:$J20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH20" s="3" t="e">
+        <v>3.7355672705548</v>
+      </c>
+      <c r="AH20" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H20:$J20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI20" s="3" t="e">
+        <v>3.9004451839676064</v>
+      </c>
+      <c r="AI20" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H20:$J20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ20" s="43" t="e">
+        <v>4.0653230973804133</v>
+      </c>
+      <c r="AJ20" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H20:$J20,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D20*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C20*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>4.72483475103164</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="83"/>
+      <c r="A21" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="1">
         <f>'310.15(B)(16)'!A21</f>
         <v>2</v>
@@ -7674,45 +7639,45 @@
         <f>'310.15(B)(19)'!F21*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>224.51089696748099</v>
       </c>
-      <c r="AA21" s="3" t="e">
+      <c r="AA21" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB21" s="26" t="e">
+        <v>3.1051673939384812</v>
+      </c>
+      <c r="AB21" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC21" s="26" t="e">
+        <v>3.2342717964411154</v>
+      </c>
+      <c r="AC21" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD21" s="26" t="e">
+        <v>3.3633761989437496</v>
+      </c>
+      <c r="AD21" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE21" s="26" t="e">
+        <v>3.8797938089542865</v>
+      </c>
+      <c r="AE21" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF21" s="26" t="e">
+        <v>4.3101418172963992</v>
+      </c>
+      <c r="AF21" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E21:$G21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG21" s="3" t="e">
+        <v>4.7404898256385124</v>
+      </c>
+      <c r="AG21" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H21:$J21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH21" s="3" t="e">
+        <v>4.6220441973363018</v>
+      </c>
+      <c r="AH21" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H21:$J21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI21" s="3" t="e">
+        <v>4.8330879265046942</v>
+      </c>
+      <c r="AI21" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H21:$J21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ21" s="43" t="e">
+        <v>5.0441316556730875</v>
+      </c>
+      <c r="AJ21" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H21:$J21,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D21*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C21*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>5.8883065723466572</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
@@ -7808,51 +7773,51 @@
         <f>'310.15(B)(19)'!F22*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>192.7618812347059</v>
       </c>
-      <c r="AA22" s="3" t="e">
+      <c r="AA22" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB22" s="26" t="e">
+        <v>3.7590498824651082</v>
+      </c>
+      <c r="AB22" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC22" s="26" t="e">
+        <v>3.9204303855934004</v>
+      </c>
+      <c r="AC22" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD22" s="26" t="e">
+        <v>4.0818108887216944</v>
+      </c>
+      <c r="AD22" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE22" s="26" t="e">
+        <v>4.7273329012348642</v>
+      </c>
+      <c r="AE22" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF22" s="26" t="e">
+        <v>5.2652679116625043</v>
+      </c>
+      <c r="AF22" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E22:$G22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG22" s="3" t="e">
+        <v>5.8032029220901471</v>
+      </c>
+      <c r="AG22" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H22:$J22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH22" s="3" t="e">
+        <v>5.6551458867123845</v>
+      </c>
+      <c r="AH22" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H22:$J22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI22" s="3" t="e">
+        <v>5.9189505481728766</v>
+      </c>
+      <c r="AI22" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H22:$J22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ22" s="43" t="e">
+        <v>6.1827552096333669</v>
+      </c>
+      <c r="AJ22" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H22:$J22,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D22*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C22*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>7.2379738554753281</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="37">
         <f>IF(UI!$E$11="open air",(10),0)</f>
@@ -7947,51 +7912,51 @@
         <f>'310.15(B)(19)'!F23*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>167.81622601609689</v>
       </c>
-      <c r="AA23" s="3" t="e">
+      <c r="AA23" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB23" s="26" t="e">
+        <v>4.5297192275590046</v>
+      </c>
+      <c r="AB23" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC23" s="26" t="e">
+        <v>4.7298310514380866</v>
+      </c>
+      <c r="AC23" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD23" s="26" t="e">
+        <v>4.9299428753171712</v>
+      </c>
+      <c r="AD23" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE23" s="26" t="e">
+        <v>5.7303901708335028</v>
+      </c>
+      <c r="AE23" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF23" s="26" t="e">
+        <v>6.3974295837637776</v>
+      </c>
+      <c r="AF23" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E23:$G23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG23" s="3" t="e">
+        <v>7.0644689966940524</v>
+      </c>
+      <c r="AG23" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H23:$J23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH23" s="3" t="e">
+        <v>7.0581736581819277</v>
+      </c>
+      <c r="AH23" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H23:$J23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI23" s="3" t="e">
+        <v>7.3945246015440524</v>
+      </c>
+      <c r="AI23" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H23:$J23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ23" s="43" t="e">
+        <v>7.7308755449061808</v>
+      </c>
+      <c r="AJ23" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H23:$J23,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D23*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C23*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>9.0762793183546826</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="37">
         <f>IF(C16=60,(7),0)</f>
@@ -8086,45 +8051,45 @@
         <f>'310.15(B)(19)'!F24*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>126.99606293110035</v>
       </c>
-      <c r="AA24" s="3" t="e">
+      <c r="AA24" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB24" s="26" t="e">
+        <v>6.8517198636535923</v>
+      </c>
+      <c r="AB24" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC24" s="26" t="e">
+        <v>7.1680256497850463</v>
+      </c>
+      <c r="AC24" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD24" s="26" t="e">
+        <v>7.4843314359164994</v>
+      </c>
+      <c r="AD24" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE24" s="26" t="e">
+        <v>8.7495545804423145</v>
+      </c>
+      <c r="AE24" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF24" s="26" t="e">
+        <v>9.8039072008804915</v>
+      </c>
+      <c r="AF24" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E24:$G24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG24" s="3" t="e">
+        <v>10.858259821318667</v>
+      </c>
+      <c r="AG24" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H24:$J24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH24" s="3" t="e">
+        <v>10.8973308904971</v>
+      </c>
+      <c r="AH24" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H24:$J24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI24" s="3" t="e">
+        <v>11.431535329954592</v>
+      </c>
+      <c r="AI24" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H24:$J24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ24" s="43" t="e">
+        <v>11.965739769412085</v>
+      </c>
+      <c r="AJ24" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H24:$J24,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D24*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C24*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>14.102557527242059</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
@@ -8225,45 +8190,45 @@
         <f>'310.15(B)(19)'!F25*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>94.113153779297576</v>
       </c>
-      <c r="AA25" s="3" t="e">
+      <c r="AA25" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB25" s="26" t="e">
+        <v>10.538316728491322</v>
+      </c>
+      <c r="AB25" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC25" s="26" t="e">
+        <v>11.041823898251597</v>
+      </c>
+      <c r="AC25" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD25" s="26" t="e">
+        <v>11.545331068011869</v>
+      </c>
+      <c r="AD25" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE25" s="26" t="e">
+        <v>13.559359747052961</v>
+      </c>
+      <c r="AE25" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF25" s="26" t="e">
+        <v>15.237716979587201</v>
+      </c>
+      <c r="AF25" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E25:$G25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG25" s="3" t="e">
+        <v>16.916074212121437</v>
+      </c>
+      <c r="AG25" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H25:$J25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH25" s="3" t="e">
+        <v>17.112661978780508</v>
+      </c>
+      <c r="AH25" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H25:$J25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI25" s="3" t="e">
+        <v>17.9700271285271</v>
+      </c>
+      <c r="AI25" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H25:$J25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ25" s="43" t="e">
+        <v>18.827392278273699</v>
+      </c>
+      <c r="AJ25" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H25:$J25,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D25*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C25*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>22.256852877260073</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
@@ -8364,51 +8329,51 @@
         <f>'310.15(B)(19)'!F26*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>71.435285398743943</v>
       </c>
-      <c r="AA26" s="3" t="e">
+      <c r="AA26" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB26" s="26" t="e">
+        <v>15.843068736832521</v>
+      </c>
+      <c r="AB26" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC26" s="26" t="e">
+        <v>16.617695151848324</v>
+      </c>
+      <c r="AC26" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD26" s="26" t="e">
+        <v>17.39232156686413</v>
+      </c>
+      <c r="AD26" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE26" s="26" t="e">
+        <v>20.490827226927347</v>
+      </c>
+      <c r="AE26" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF26" s="26" t="e">
+        <v>23.072915276980027</v>
+      </c>
+      <c r="AF26" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E26:$G26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG26" s="3" t="e">
+        <v>25.655003327032706</v>
+      </c>
+      <c r="AG26" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H26:$J26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH26" s="3" t="e">
+        <v>25.957446044969739</v>
+      </c>
+      <c r="AH26" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H26:$J26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI26" s="3" t="e">
+        <v>27.276469352272187</v>
+      </c>
+      <c r="AI26" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H26:$J26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ26" s="43" t="e">
+        <v>28.595492659574646</v>
+      </c>
+      <c r="AJ26" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H26:$J26,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D26*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C26*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>33.871585888784452</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="37">
         <f>IF(C16=150,(10),0)</f>
@@ -8503,51 +8468,51 @@
         <f>'310.15(B)(19)'!F27*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>53.292990694301039</v>
       </c>
-      <c r="AA27" s="3" t="e">
+      <c r="AA27" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB27" s="26" t="e">
+        <v>26.03538833131033</v>
+      </c>
+      <c r="AB27" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC27" s="26" t="e">
+        <v>27.326432356336674</v>
+      </c>
+      <c r="AC27" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD27" s="26" t="e">
+        <v>28.617476381363019</v>
+      </c>
+      <c r="AD27" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE27" s="26" t="e">
+        <v>33.781652481468377</v>
+      </c>
+      <c r="AE27" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF27" s="26" t="e">
+        <v>38.085132564889513</v>
+      </c>
+      <c r="AF27" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E27:$G27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG27" s="3" t="e">
+        <v>42.388612648310641</v>
+      </c>
+      <c r="AG27" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H27:$J27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH27" s="3" t="e">
+        <v>41.20415636528854</v>
+      </c>
+      <c r="AH27" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H27:$J27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI27" s="3" t="e">
+        <v>43.31459365697247</v>
+      </c>
+      <c r="AI27" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H27:$J27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ27" s="43" t="e">
+        <v>45.425030948656399</v>
+      </c>
+      <c r="AJ27" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H27:$J27,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D27*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C27*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>53.866780115392096</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="37">
         <f>IF(C16=60,(1),0)</f>
@@ -8642,45 +8607,45 @@
         <f>'310.15(B)(19)'!F28*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="3" t="e">
+      <c r="AA28" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB28" s="26" t="e">
+        <v>40.031091647193151</v>
+      </c>
+      <c r="AB28" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC28" s="26" t="e">
+        <v>42.032209885983967</v>
+      </c>
+      <c r="AC28" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD28" s="26" t="e">
+        <v>44.033328124774805</v>
+      </c>
+      <c r="AD28" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE28" s="26" t="e">
+        <v>52.03780107993812</v>
+      </c>
+      <c r="AE28" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF28" s="26" t="e">
+        <v>58.708195209240877</v>
+      </c>
+      <c r="AF28" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E28:$G28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG28" s="3" t="e">
+        <v>65.378589338543605</v>
+      </c>
+      <c r="AG28" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H28:$J28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH28" s="3" t="e">
+        <v>0.7294598593415077</v>
+      </c>
+      <c r="AH28" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H28:$J28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI28" s="3" t="e">
+        <v>0.7294598593415077</v>
+      </c>
+      <c r="AI28" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H28:$J28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ28" s="43" t="e">
+        <v>0.7294598593415077</v>
+      </c>
+      <c r="AJ28" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H28:$J28,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D28*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C28*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0.7294598593415077</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
@@ -8781,45 +8746,45 @@
         <f>'310.15(B)(19)'!F29*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA29" s="3" t="e">
+      <c r="AA29" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB29" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC29" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD29" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE29" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF29" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E29:$G29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG29" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H29:$J29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH29" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H29:$J29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI29" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H29:$J29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ29" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H29:$J29,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D29*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C29*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
@@ -8920,51 +8885,51 @@
         <f>'310.15(B)(19)'!F30*'wire calculator'!$C$19*'wire calculator'!$C$20</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="3" t="e">
+      <c r="AA30" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB30" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC30" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD30" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE30" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(200-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF30" s="26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="26">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$E30:$G30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.00323*(250-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG30" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H30:$J30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(60-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH30" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H30:$J30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(75-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI30" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H30:$J30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(90-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ30" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="43">
         <f>$C$40*$C$36*((INDEX('chapter 9 table 9'!$H30:$J30,1,SUM('wire calculator'!$C$46:$C$50))*(1+0.0033*(150-75))*'wire calculator'!$C$41)+IF('wire calculator'!$C$49=3,'chapter 9 table 9'!$D30*SIN(ACOS('wire calculator'!$C$41)),'chapter 9 table 9'!$C30*SIN(ACOS('wire calculator'!$C$41))))/1000*($C$42+$C$43)*(100/$C$53)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="37">
         <f>IF(C16=150,(4),0)</f>
@@ -8973,47 +8938,47 @@
       <c r="D31" s="68"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="82" t="s">
+      <c r="G31" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="102"/>
+      <c r="AG31" s="102"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="102"/>
+      <c r="AJ31" s="102"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="37">
         <f>IF(C16=200,(5),0)</f>
@@ -9021,7 +8986,7 @@
       </c>
       <c r="D32" s="68"/>
       <c r="G32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>41</v>
@@ -9030,16 +8995,16 @@
         <v>40</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="M32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>39</v>
@@ -9048,10 +9013,10 @@
         <v>38</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>41</v>
@@ -9060,16 +9025,16 @@
         <v>40</v>
       </c>
       <c r="T32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="V32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="W32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>39</v>
@@ -9078,10 +9043,10 @@
         <v>38</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>41</v>
@@ -9090,16 +9055,16 @@
         <v>40</v>
       </c>
       <c r="AD32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE32" s="1" t="s">
+      <c r="AF32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AF32" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="AG32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>39</v>
@@ -9108,7 +9073,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK32" s="23"/>
       <c r="AO32" s="23"/>
@@ -9119,7 +9084,7 @@
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="37">
         <f>IF(C16=250,(6),0)</f>
@@ -9130,123 +9095,123 @@
       <c r="F33" s="32"/>
       <c r="G33" s="32">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!G5:G30,-1))</f>
-        <v>2580</v>
+        <v>250000</v>
       </c>
       <c r="H33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!H5:H30,-1))</f>
-        <v>2580</v>
+        <v>167800</v>
       </c>
       <c r="I33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!I5:I30,-1))</f>
-        <v>1620</v>
+        <v>167800</v>
       </c>
       <c r="J33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!J16:J30,-1))</f>
-        <v>2580</v>
+        <v>83690</v>
       </c>
       <c r="K33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!K16:K30,-1))</f>
-        <v>2580</v>
+        <v>83690</v>
       </c>
       <c r="L33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!L16:L30,-1))</f>
-        <v>2580</v>
+        <v>66360</v>
       </c>
       <c r="M33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!M5:M30,-1))</f>
-        <v>4110</v>
+        <v>350000</v>
       </c>
       <c r="N33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!N5:N30,-1))</f>
-        <v>4110</v>
+        <v>250000</v>
       </c>
       <c r="O33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!O5:O30,-1))</f>
-        <v>4110</v>
+        <v>211600</v>
       </c>
       <c r="P33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!P16:P30,-1))</f>
-        <v>4110</v>
+        <v>133100</v>
       </c>
       <c r="Q33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!Q5:Q30,-1))</f>
-        <v>2580</v>
+        <v>133100</v>
       </c>
       <c r="R33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!R5:R30,-1))</f>
-        <v>2580</v>
+        <v>105600</v>
       </c>
       <c r="S33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!S5:S30,-1))</f>
-        <v>1620</v>
+        <v>83690</v>
       </c>
       <c r="T33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!T16:T30,-1))</f>
-        <v>2580</v>
+        <v>41740</v>
       </c>
       <c r="U33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!U16:U30,-1))</f>
-        <v>2580</v>
+        <v>41740</v>
       </c>
       <c r="V33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!V16:V30,-1))</f>
-        <v>2580</v>
+        <v>26240</v>
       </c>
       <c r="W33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!W5:W30,-1))</f>
-        <v>4110</v>
+        <v>167800</v>
       </c>
       <c r="X33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!X5:X30,-1))</f>
-        <v>4110</v>
+        <v>133100</v>
       </c>
       <c r="Y33">
         <f>INDEX(F5:F30,MATCH(C36,'wire calculator'!Y5:Y30,-1))</f>
-        <v>4110</v>
+        <v>105600</v>
       </c>
       <c r="Z33">
         <f>INDEX(F16:F30,MATCH(C36,'wire calculator'!Z16:Z30,-1))</f>
-        <v>4110</v>
-      </c>
-      <c r="AA33" t="e">
+        <v>66360</v>
+      </c>
+      <c r="AA33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AA5:AA28,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB33" t="e">
+        <v>83690</v>
+      </c>
+      <c r="AB33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AB5:AB28,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC33" t="e">
+        <v>83690</v>
+      </c>
+      <c r="AC33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AC5:AC28,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD33" t="e">
+        <v>83690</v>
+      </c>
+      <c r="AD33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AD5:AD28,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE33" t="e">
+        <v>105600</v>
+      </c>
+      <c r="AE33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AE5:AE28,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF33" t="e">
+        <v>105600</v>
+      </c>
+      <c r="AF33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AF5:AF28,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG33" t="e">
+        <v>133100</v>
+      </c>
+      <c r="AG33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AG5:AG28,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH33" t="e">
+        <v>133100</v>
+      </c>
+      <c r="AH33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AH5:AH28,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI33" t="e">
+        <v>133100</v>
+      </c>
+      <c r="AI33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AI5:AI28,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ33" t="e">
+        <v>133100</v>
+      </c>
+      <c r="AJ33">
         <f>INDEX(F5:F28,MATCH(UI!$E$15,'wire calculator'!AJ5:AJ28,1))</f>
-        <v>#N/A</v>
+        <v>167800</v>
       </c>
       <c r="AK33" s="23"/>
       <c r="AO33" s="23"/>
@@ -9255,12 +9220,12 @@
       <c r="AR33" s="23"/>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="83"/>
+      <c r="A34" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="Q34" s="34"/>
@@ -9274,14 +9239,14 @@
       <c r="Y34" s="30"/>
       <c r="Z34" s="34"/>
       <c r="AA34" s="34"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="80"/>
-      <c r="AE34" s="80"/>
-      <c r="AF34" s="80"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="80"/>
-      <c r="AI34" s="80"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="100"/>
+      <c r="AI34" s="100"/>
       <c r="AJ34" s="34"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -9295,11 +9260,11 @@
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="37">
         <f>IF(UI!F5="A",UI!E5,UI!E5/(VLOOKUP(UI!E4,'wire calculator'!B1:C5,2,FALSE)*UI!E3))/UI!E13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D36" s="68"/>
       <c r="R36" s="1"/>
@@ -9325,11 +9290,11 @@
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="64">
         <f>INDEX(G33:Z33,1,C23+SUM(C24:C27))</f>
-        <v>4110</v>
+        <v>250000</v>
       </c>
       <c r="D37" s="68"/>
       <c r="R37" s="1"/>
@@ -9355,11 +9320,11 @@
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="64">
         <f>INDEX(G33:Z33,1,C23+SUM(C28:C33))</f>
-        <v>2580</v>
+        <v>167800</v>
       </c>
       <c r="D38" s="68"/>
       <c r="R38" s="1"/>
@@ -9394,7 +9359,7 @@
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="65">
         <f>VLOOKUP(UI!E4,'wire calculator'!B1:C5,2,FALSE)</f>
@@ -9419,7 +9384,7 @@
       </c>
       <c r="C41" s="63">
         <f>UI!E7</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D41" s="68"/>
       <c r="R41" s="1"/>
@@ -9436,11 +9401,11 @@
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="37">
         <f>UI!E6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D42" s="68"/>
       <c r="R42" s="1"/>
@@ -9457,7 +9422,7 @@
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="31">
         <f>IF(C40=1,C42,0)</f>
@@ -9478,11 +9443,11 @@
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="63">
         <f>UI!E15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="68"/>
       <c r="R44" s="1"/>
@@ -9515,7 +9480,7 @@
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="31">
         <f>IF(UI!$E$11="direct burried",1,0)</f>
@@ -9536,11 +9501,11 @@
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="31">
         <f>IF(UI!$E$11="PVC conduit",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="68"/>
       <c r="R47" s="1"/>
@@ -9557,7 +9522,7 @@
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="31">
         <f>IF(UI!$E$11="Al conduit",2,0)</f>
@@ -9578,11 +9543,11 @@
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="31">
         <f>IF(UI!$E$11="steel conduit",3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49" s="68"/>
       <c r="R49" s="1"/>
@@ -9599,7 +9564,7 @@
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="31">
         <f>IF(UI!$E$11="open air",1,0)</f>
@@ -9618,12 +9583,12 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="83"/>
+      <c r="A51" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="103"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -9654,11 +9619,11 @@
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
       <c r="B53" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="61">
         <f>UI!E3</f>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="D53" s="69"/>
       <c r="R53" s="1"/>
@@ -9691,11 +9656,11 @@
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="64" t="e">
+        <v>102</v>
+      </c>
+      <c r="C55" s="64">
         <f>IF(UI!$E$13&gt;1,MAX(C37,INDEX(AA33:AJ33,1,SUM(C24:C27)),'Trade Size'!B19),MAX(C37,INDEX(AA33:AJ33,1,SUM(C24:C27))))</f>
-        <v>#N/A</v>
+        <v>250000</v>
       </c>
       <c r="D55" s="68"/>
       <c r="R55" s="1"/>
@@ -9712,11 +9677,11 @@
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="64" t="e">
+        <v>103</v>
+      </c>
+      <c r="C56" s="64">
         <f>IF(UI!$E$13&gt;1,MAX(C38,INDEX(AA33:AJ33,1,SUM(C28:C33)),'Trade Size'!B19),MAX(C38,INDEX(AA33:AJ33,1,SUM(C28:C33))))</f>
-        <v>#N/A</v>
+        <v>167800</v>
       </c>
       <c r="D56" s="68"/>
       <c r="R56" s="1"/>
@@ -9749,11 +9714,11 @@
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
       <c r="B58" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="66" t="str">
+        <v>109</v>
+      </c>
+      <c r="C58" s="66">
         <f>UI!E26</f>
-        <v/>
+        <v>1.665433468816228</v>
       </c>
       <c r="D58" s="68"/>
       <c r="R58" s="1"/>
@@ -9770,11 +9735,11 @@
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
       <c r="B59" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="66" t="str">
+        <v>108</v>
+      </c>
+      <c r="C59" s="66">
         <f>UI!E37</f>
-        <v/>
+        <v>1.5721691945625196</v>
       </c>
       <c r="D59" s="68"/>
       <c r="R59" s="1"/>
@@ -9807,11 +9772,11 @@
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
       <c r="B61" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="65" t="e">
+        <v>106</v>
+      </c>
+      <c r="C61" s="65">
         <f>C58*C53/(C40*C36*(C42+C43)*100)</f>
-        <v>#VALUE!</v>
+        <v>1E-4</v>
       </c>
       <c r="D61" s="68"/>
       <c r="R61" s="1"/>
@@ -9828,11 +9793,11 @@
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
       <c r="B62" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="65" t="e">
+        <v>107</v>
+      </c>
+      <c r="C62" s="65">
         <f>C59*C53/(C40*C36*(C42+C43)*100)</f>
-        <v>#VALUE!</v>
+        <v>9.4400000000000018E-5</v>
       </c>
       <c r="D62" s="68"/>
       <c r="R62" s="1"/>
@@ -9865,11 +9830,11 @@
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
       <c r="B64" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="64" t="e">
+        <v>104</v>
+      </c>
+      <c r="C64" s="64">
         <f>C44*C53/(C40*C36*C61*100)-C43</f>
-        <v>#VALUE!</v>
+        <v>180.13328398716325</v>
       </c>
       <c r="D64" s="68"/>
       <c r="R64" s="1"/>
@@ -9886,11 +9851,11 @@
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="B65" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="64" t="e">
+        <v>105</v>
+      </c>
+      <c r="C65" s="64">
         <f>C44*C53/(C40*C36*C62*100)-C43</f>
-        <v>#VALUE!</v>
+        <v>190.81915676606272</v>
       </c>
       <c r="D65" s="68"/>
       <c r="R65" s="1"/>
@@ -9923,11 +9888,11 @@
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="65" t="e">
+        <v>112</v>
+      </c>
+      <c r="C67" s="65">
         <f>UI!E21/(C37)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="D67" s="68"/>
       <c r="R67" s="1"/>
@@ -9944,11 +9909,11 @@
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="65" t="e">
+        <v>113</v>
+      </c>
+      <c r="C68" s="65">
         <f>UI!E32/(C38)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="D68" s="68"/>
       <c r="R68" s="1"/>
@@ -9981,11 +9946,11 @@
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="31" t="e">
+        <v>110</v>
+      </c>
+      <c r="C70" s="31">
         <f>UI!$E$13*'wire calculator'!$C$36*'wire calculator'!C67</f>
-        <v>#VALUE!</v>
+        <v>200</v>
       </c>
       <c r="D70" s="68"/>
       <c r="R70" s="1"/>
@@ -10002,11 +9967,11 @@
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="31" t="e">
+        <v>111</v>
+      </c>
+      <c r="C71" s="31">
         <f>UI!$E$13*'wire calculator'!$C$36*'wire calculator'!C68</f>
-        <v>#VALUE!</v>
+        <v>200</v>
       </c>
       <c r="D71" s="68"/>
       <c r="R71" s="1"/>
@@ -10039,22 +10004,22 @@
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="B73" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="31" t="e">
+        <v>115</v>
+      </c>
+      <c r="C73" s="31">
         <f>INDEX('250.122'!C1:C21,MATCH('wire calculator'!C70,'250.122'!A1:A21,-1))</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="D73" s="68"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="31"/>
       <c r="B74" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="31" t="e">
+        <v>116</v>
+      </c>
+      <c r="C74" s="31">
         <f>INDEX('250.122'!B1:B21,MATCH('wire calculator'!C71,'250.122'!A1:A21,-1))</f>
-        <v>#VALUE!</v>
+        <v>6</v>
       </c>
       <c r="D74" s="68"/>
     </row>
@@ -10067,22 +10032,22 @@
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="31"/>
       <c r="B76" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="32" t="e">
+        <v>120</v>
+      </c>
+      <c r="C76" s="32">
         <f>IF(ISNA(INDEX('250.66'!F1:F7,MATCH(UI!E13*UI!E21,'250.66'!E1:E7,-1))),"250",INDEX('250.66'!F1:F7,MATCH(UI!E13*UI!E21,'250.66'!E1:E7,-1)))</f>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="D76" s="68"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="31"/>
       <c r="B77" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="32" t="e">
+        <v>119</v>
+      </c>
+      <c r="C77" s="32">
         <f>IF(ISNA(INDEX('250.66'!F1:F7,MATCH(UI!E13*UI!E32,'250.66'!E1:E7,-1))),"3/0",INDEX('250.66'!F1:F7,MATCH(UI!E13*UI!E32,'250.66'!E1:E7,-1)))</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="D77" s="68"/>
     </row>
@@ -10095,22 +10060,22 @@
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="32" t="e">
+        <v>118</v>
+      </c>
+      <c r="C79" s="32">
         <f>IF(ISNA(INDEX('250.102(C)(1)'!F1:F7,MATCH(UI!E21,'250.102(C)(1)'!E1:E7,-1))),INDEX('Trade Size'!A1:A30,MATCH(UI!E21*0.125,'Trade Size'!B1:B30,-1)),INDEX('250.102(C)(1)'!F1:F7,MATCH(UI!E21,'250.102(C)(1)'!E1:E7,-1)))</f>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="D79" s="68"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="31"/>
       <c r="B80" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="32" t="e">
+        <v>117</v>
+      </c>
+      <c r="C80" s="32">
         <f>IF(ISNA(INDEX('250.102(C)(1)'!C1:C7,MATCH(UI!E32,'250.102(C)(1)'!B1:B7,-1))),INDEX('Trade Size'!A1:A30,MATCH(UI!E32*0.125,'Trade Size'!B1:B30,-1)),INDEX('250.102(C)(1)'!C1:C7,MATCH(UI!E32,'250.102(C)(1)'!B1:B7,-1)))</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="D80" s="68"/>
     </row>
@@ -10121,12 +10086,12 @@
       <c r="D81" s="70"/>
     </row>
     <row r="82" spans="1:4" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
+      <c r="A82" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="104"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10420,7 +10385,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>27</v>
@@ -10453,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10463,12 +10428,12 @@
       <c r="B2" s="43">
         <v>0.8</v>
       </c>
-      <c r="D2" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="D2" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
@@ -10477,10 +10442,10 @@
       <c r="B3" s="43">
         <v>0.7</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -10489,10 +10454,10 @@
       <c r="B4" s="43">
         <v>0.5</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
@@ -10501,10 +10466,10 @@
       <c r="B5" s="43">
         <v>0.45</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
@@ -10513,10 +10478,10 @@
       <c r="B6" s="43">
         <v>0.4</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
@@ -10525,14 +10490,14 @@
       <c r="B7" s="44">
         <v>0.35</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>6</v>
@@ -10713,19 +10678,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="24" t="s">
+      <c r="E8" s="106"/>
+      <c r="F8" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10919,19 +10884,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="24" t="s">
+      <c r="E8" s="106"/>
+      <c r="F8" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11204,13 +11169,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -12072,12 +12037,12 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="81"/>
+      <c r="A31" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="101"/>
       <c r="C31" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>41</v>
@@ -12086,7 +12051,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>39</v>
@@ -12954,12 +12919,12 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="81"/>
+      <c r="A31" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="101"/>
       <c r="C31" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>41</v>
@@ -12968,7 +12933,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>39</v>
